--- a/artifacts/recipes/new_data/allrecipescom/breakfast/breakfast_waffles.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/breakfast/breakfast_waffles.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699653549-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Waffles</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699653555-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -204,59 +545,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/281826/fluffy-belgian-waffles/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Fluffy Belgian Waffles</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n3 \n\n\nYield:\n3 servings"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"nonstick cooking spray\n\n\n2 large eggs\n\n\n1 cup milk\n\n\n¼ cup vegetable oil\n\n\n1 tablespoon white sugar\n\n\n¼ teaspoon salt\n\n\n3 teaspoons baking powder\n\n\n½ cup all-purpose flour\n\n\n½ cup whole wheat flour"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'nonstick cooking spray\n\n\n2 large eggs\n\n\n1 cup milk\n\n\n¼ cup vegetable oil\n\n\n1 tablespoon white sugar\n\n\n¼ teaspoon salt\n\n\n3 teaspoons baking powder\n\n\n½ cup all-purpose flour\n\n\n½ cup whole wheat flour'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Spray a Belgian waffle iron with cooking spray and preheat according to manufacturer's instructions."},{"recipe_directions":"Beat eggs with a whisk until fluffy. Beating slightly after each ingredient, first add milk, then oil, sugar, salt, baking powder, all-purpose flour, and finally whole wheat flour; do not overbeat."},{"recipe_directions":"Pour 3/4 cup batter into the center of the hot waffle iron, spreading with a metal knife if necessary. Close the iron and bake until it stops steaming, 2 to 5 minutes, depending on your iron. Carefully remove cooked waffle with a fork and repeat with remaining batter."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"411\nCalories\n\n\n24g \nFat\n\n\n40g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699653560-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/mxrhXZJDf8Rp5aO1uEUBlZJEkNg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(599x0:601x2):format(webp)/8000727-f3a02bf841b44559901b1a0c0ca2317f.jpg"
@@ -269,59 +606,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/279948/sourdough-discard-waffles/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Sourdough Discard Waffles</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 waffles"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup sourdough starter\n\n\n1 cup plain yogurt\n\n\n1 cup all-purpose flour\n\n\n1 tablespoon brown sugar\n\n\n1  egg\n\n\n¼ cup butter, melted and cooled\n\n\n1 teaspoon vanilla extract\n\n\n1 teaspoon baking soda\n\n\n½ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup sourdough starter\n\n\n1 cup plain yogurt\n\n\n1 cup all-purpose flour\n\n\n1 tablespoon brown sugar\n\n\n1  egg\n\n\n¼ cup butter, melted and cooled\n\n\n1 teaspoon vanilla extract\n\n\n1 teaspoon baking soda\n\n\n½ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine sourdough starter and yogurt in a bowl the night before you plan to cook the waffles. Stir while pouring in flour and brown sugar. Mix until well combined. Cover batter and let rest in the fridge, 8 hours to overnight."},{"recipe_directions":"Preheat a waffle iron according to manufacturer's instructions."},{"recipe_directions":"Beat egg in a large bowl when you're ready to make the waffles. Add melted butter and vanilla extract. Mix in baking soda and salt. Add the sourdough starter mixture and stir until batter is well combined."},{"recipe_directions":"Pour batter into waffle iron and cook until golden brown, about 3 minutes per waffle."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"378\nCalories\n\n\n14g \nFat\n\n\n49g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699653568-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/FiwfpGScViGGDyErhPcTBZ-wbeI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4459987-ecb3d2a3e4da4f38996b329eda94ff02.jpg"
@@ -334,59 +667,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/256559/cathys-gluten-free-oatmeal-waffles/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Cathy's Gluten-Free Oatmeal Waffles</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 to 6 round waffles"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n1 ½ cups gluten-free rolled oats\n\n\n¾ cup almond milk\n\n\n1  egg, at room temperature, separated\n\n\n3 tablespoons melted butter\n\n\n1 tablespoon brown sugar\n\n\n1 teaspoon baking powder"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n1 ½ cups gluten-free rolled oats\n\n\n¾ cup almond milk\n\n\n1  egg, at room temperature, separated\n\n\n3 tablespoons melted butter\n\n\n1 tablespoon brown sugar\n\n\n1 teaspoon baking powder'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a waffle iron according to manufacturer's instructions. Grease with cooking spray."},{"recipe_directions":"Combine oats and almond milk in a large bowl."},{"recipe_directions":"Whisk egg yolk and butter together in a small bowl; stir into oat mixture."},{"recipe_directions":"Beat egg white in a glass, metal, or ceramic bowl until stiff peaks form."},{"recipe_directions":"Stir brown sugar and baking powder into the oat mixture. Fold beaten egg white gently into the batter."},{"recipe_directions":"Scoop 1/2 cup batter onto the preheated iron and spread to the edges. Close iron and cook until iron stops steaming, about 5 minutes. Repeat with remaining batter."},{"recipe_directions":"Substitute cow, rice, or soy milk for the almond milk if desired."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"235\nCalories\n\n\n12g \nFat\n\n\n26g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699653574-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/97_F6OnyY-w8E7ZVSRr9LLujmPo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/Chocolate-Chip-Belgian-Waffles-1x1-1-2000-0aa0d111ad2a4333b816f847a8271edc.jpg"
@@ -400,59 +729,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/281824/chocolate-chip-belgian-waffles/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Chocolate Chip Belgian Waffles</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n3 \n\n\nYield:\n3 servings"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 large egg\n\n\n1 cup all-purpose flour\n\n\n7 fluid ounces milk\n\n\n⅓ cup chocolate chips\n\n\n¼ cup vegetable oil\n\n\n1 tablespoon white sugar\n\n\n2 teaspoons baking powder\n\n\n¼ teaspoon vanilla extract\n\n\n⅛ teaspoon salt\n\n\n  nonstick cooking spray"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 large egg\n\n\n1 cup all-purpose flour\n\n\n7 fluid ounces milk\n\n\n⅓ cup chocolate chips\n\n\n¼ cup vegetable oil\n\n\n1 tablespoon white sugar\n\n\n2 teaspoons baking powder\n\n\n¼ teaspoon vanilla extract\n\n\n⅛ teaspoon salt\n\n\n  nonstick cooking spray'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Beat egg in a large bowl with a hand mixer until fluffy. Add flour, milk, chocolate chips, oil, sugar, baking powder, vanilla extract, and salt; mix just until smooth."},{"recipe_directions":"Spray a Belgian waffle iron with cooking spray and preheat according to manufacturer's instructions."},{"recipe_directions":"Pour about 3/4 cup batter onto the hot waffle iron and cook until golden brown. Repeat with remaining batter. Serve hot."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Belgian"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"480\nCalories\n\n\n27g \nFat\n\n\n52g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699653585-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/J4RRfNq4DZ1m6uOUFL72LygYM3I=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1002141-4b49c4a7755542f8898160c0750a701a.jpg"
@@ -465,59 +790,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/232154/buttermilk-oatmeal-waffles/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Buttermilk Oatmeal Waffles</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 ½ cups all-purpose flour\n\n\n1 ½ cups rolled oats\n\n\n3 tablespoons white sugar\n\n\n2 tablespoons baking powder\n\n\n1 ½ teaspoons salt\n\n\n4  eggs, separated\n\n\n1 ½ cups buttermilk\n\n\n1 cup milk\n\n\n½ cup butter, melted\n\n\n1 ½ teaspoons vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 ½ cups all-purpose flour\n\n\n1 ½ cups rolled oats\n\n\n3 tablespoons white sugar\n\n\n2 tablespoons baking powder\n\n\n1 ½ teaspoons salt\n\n\n4  eggs, separated\n\n\n1 ½ cups buttermilk\n\n\n1 cup milk\n\n\n½ cup butter, melted\n\n\n1 ½ teaspoons vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a waffle iron according to manufacturer's instructions. Mix flour, oats, sugar, baking powder, and salt in a large bowl."},{"recipe_directions":"Beat egg yolks in another bowl, reserving egg whites in a third bowl. Add buttermilk, milk, and melted butter to egg yolks; beat until well mixed. Pour buttermilk mixture into flour mixture; beat until batter is blended."},{"recipe_directions":"Beat egg whites and vanilla extract in a glass or metal bowl until soft peaks form. Fold half the egg whites into the buttermilk batter until egg whites are incorporated; repeat with remaining half."},{"recipe_directions":"Ladle batter into preheated waffle iron. Cook until waffles are golden and crisp, about 5 minutes. Transfer waffle to a paper towel-lined plate to prevent sogginess and repeat with remaining batter."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"389\nCalories\n\n\n16g \nFat\n\n\n50g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699653591-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vp1EmqjSeGeTq7zqmagwGZTH2Mo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(888x0:890x2):format(webp)/9109476-6ff01073537b40e7bf07d0e4760bc55e.jpg"
@@ -530,59 +851,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/283702/swedish-crisp-waffles-frasvafflor/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Swedish Crisp Waffles (Frasvafflor)</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups all-purpose flour\n\n\n1 tablespoon white sugar\n\n\n1 teaspoon salt\n\n\n1 teaspoon baking powder\n\n\n1 ¼ cups milk\n\n\n½ cup unsalted butter, melted and cooled\n\n\n½ cup heavy cream\n\n\n½ cup lemon-lime flavored carbonated beverage"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups all-purpose flour\n\n\n1 tablespoon white sugar\n\n\n1 teaspoon salt\n\n\n1 teaspoon baking powder\n\n\n1 ¼ cups milk\n\n\n½ cup unsalted butter, melted and cooled\n\n\n½ cup heavy cream\n\n\n½ cup lemon-lime flavored carbonated beverage'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a waffle iron according to manufacturer's instructions."},{"recipe_directions":"Sift flour, sugar, salt, and baking powder together in a bowl. Whisk in milk, butter, and heavy cream; stir in soda."},{"recipe_directions":"Cook in batches in the preheated waffle iron until waffles are golden brown and the iron stops steaming, about 5 minutes."},{"recipe_directions":"Use any clear, mild soda for this."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"299\nCalories\n\n\n18g \nFat\n\n\n30g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699653597-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/oYizuLMbr0p2Nwo2gbAk1rVysl8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1491x0:1493x2):format(webp)/4986054-7bdca2b57c9842878221014f45da8e8d.jpg"
@@ -595,59 +912,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/259023/rice-waffles/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Rice Waffles</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 waffles"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  eggs, separated\n\n\n1 ¾ cups rice milk\n\n\n1 cup rice flour\n\n\n¾ cup modified tapioca starch\n\n\n½ cup canola oil\n\n\n¼ cup almond meal\n\n\n1 tablespoon white sugar\n\n\n2 teaspoons baking powder\n\n\n½ teaspoon vanilla extract\n\n\n¼ teaspoon salt\n\n\n  cooking spray"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  eggs, separated\n\n\n1 ¾ cups rice milk\n\n\n1 cup rice flour\n\n\n¾ cup modified tapioca starch\n\n\n½ cup canola oil\n\n\n¼ cup almond meal\n\n\n1 tablespoon white sugar\n\n\n2 teaspoons baking powder\n\n\n½ teaspoon vanilla extract\n\n\n¼ teaspoon salt\n\n\n  cooking spray'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a waffle iron according to manufacturer's instructions."},{"recipe_directions":"Beat egg whites in a glass, metal, or ceramic bowl with an electric mixer until stiff peaks form."},{"recipe_directions":"Mix egg yolks in a separate bowl using a hand beater. Beat in rice milk, rice flour, tapioca starch, oil, almond meal, sugar, baking powder, vanilla extract, and salt just until smooth. Fold in stiff egg whites."},{"recipe_directions":"Spray the preheated waffle iron with cooking spray. Cook waffles until golden brown and the iron stops steaming, about 5 minutes per waffle."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"623\nCalories\n\n\n33g \nFat\n\n\n72g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699653602-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/_qNvi9UIitQEO0CCopVQNyDDOrI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1343429-63258163e43c4b8bb967b590604f590e.jpg"
@@ -660,59 +973,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/238878/sweet-potato-waffles-with-cranberry-maple-syrup/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Sweet Potato Waffles with Cranberry Maple Syrup</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n5 \n\n\nYield:\n5 servings"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups sweet potato puree\n\n\n⅔ cup milk\n\n\n1  egg, lightly beaten\n\n\n2 tablespoons melted butter\n\n\n1 ½ cups all-purpose flour\n\n\n2 tablespoons brown sugar\n\n\n1 ½ tablespoons baking powder\n\n\n1 teaspoon ground cinnamon\n\n\n¼ teaspoon ground nutmeg\n\n\n¼ teaspoon ground ginger\n\n\n⅛ teaspoon ground cloves\n\n\n⅛ teaspoon salt"},{"recipe_ingredients":"1 cup maple syrup\n\n\n½ cup cranberry sauce\n\n\n½ teaspoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups sweet potato puree\n\n\n⅔ cup milk\n\n\n1  egg, lightly beaten\n\n\n2 tablespoons melted butter\n\n\n1 ½ cups all-purpose flour\n\n\n2 tablespoons brown sugar\n\n\n1 ½ tablespoons baking powder\n\n\n1 teaspoon ground cinnamon\n\n\n¼ teaspoon ground nutmeg\n\n\n¼ teaspoon ground ginger\n\n\n⅛ teaspoon ground cloves\n\n\n⅛ teaspoon salt'}, {'recipe_ingredients': '1 cup maple syrup\n\n\n½ cup cranberry sauce\n\n\n½ teaspoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a waffle iron according to manufacturer's instructions."},{"recipe_directions":"Stir sweet potato, milk, egg, and butter together in a bowl. Whisk flour, brown sugar, baking powder, 1 teaspoon cinnamon, nutmeg, ginger, cloves, and salt together in a separate large bowl. Add potato mixture to flour mixture; stir until batter is just combined."},{"recipe_directions":"Ladle batter into the preheated waffle iron and cook until waffles are golden and crisp, about 3 minutes."},{"recipe_directions":"Stir maple syrup, cranberry sauce, and 1/2 teaspoon cinnamon together in a saucepan over medium heat. Cook, stirring occasionally, until well-combined and heated through, 5 to 10 minutes. Pour syrup over cooked waffles."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"517\nCalories\n\n\n7g \nFat\n\n\n108g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699653606-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/bs6LzbXyAwvp3kW1_Sb52F0twg8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2334038-6ea0cd7412644860bcde7d210a5c60df.jpg"
@@ -725,59 +1034,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/240455/whole-wheat-banana-waffles/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Whole Wheat Banana Waffles</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n6 \n\n\nYield:\n6 waffles"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup all-purpose flour\n\n\n¾ cup whole wheat flour\n\n\n1 tablespoon baking powder\n\n\n¼ teaspoon kosher salt\n\n\n1 ½ cups milk\n\n\n1 cup mashed overripe bananas\n\n\n½ cup canola oil\n\n\n2  eggs\n\n\n½ teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup all-purpose flour\n\n\n¾ cup whole wheat flour\n\n\n1 tablespoon baking powder\n\n\n¼ teaspoon kosher salt\n\n\n1 ½ cups milk\n\n\n1 cup mashed overripe bananas\n\n\n½ cup canola oil\n\n\n2  eggs\n\n\n½ teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a waffle iron according to manufacturer's instructions. Grease the inside of the waffle iron."},{"recipe_directions":"Mix all-purpose flour, whole wheat flour, baking powder, and salt together in a bowl. Whisk milk, bananas, canola oil, eggs, and vanilla extract together in a separate bowl; stir into flour mixture until batter is moistened with a few lumps."},{"recipe_directions":"Spoon about 1/4 cup batter into preheated waffle iron and cook according to manufacturer's instructions."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"382\nCalories\n\n\n22g \nFat\n\n\n39g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699653613-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/KyyIcFrCjtNk-G-CBt1B26iHdxk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2591x0:2593x2):format(webp)/6920193-c0bd725855864612ad7750bf7404e6d5.jpg"
@@ -790,59 +1095,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/274986/pecan-ricotta-waffles/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Pecan-Ricotta Waffles</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n5 \n\n\nYield:\n5 waffles"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ¾ cups all-purpose flour\n\n\n2 tablespoons brown sugar\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon baking soda\n\n\n¼ teaspoon salt\n\n\n1 ½ cups buttermilk\n\n\n½ cup ricotta cheese\n\n\n2  large eggs\n\n\n4 tablespoons unsalted butter, melted and cooled\n\n\n1 ½ teaspoons maple extract\n\n\n  cooking spray\n\n\n¾ cup chopped pecans"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ¾ cups all-purpose flour\n\n\n2 tablespoons brown sugar\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon baking soda\n\n\n¼ teaspoon salt\n\n\n1 ½ cups buttermilk\n\n\n½ cup ricotta cheese\n\n\n2  large eggs\n\n\n4 tablespoons unsalted butter, melted and cooled\n\n\n1 ½ teaspoons maple extract\n\n\n  cooking spray\n\n\n¾ cup chopped pecans'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 200 degrees F (95 degrees C). Preheat a waffle iron according to manufacturer's instructions."},{"recipe_directions":"Whisk flour, brown sugar, baking powder, baking soda, and salt together in a mixing bowl."},{"recipe_directions":"Combine buttermilk, ricotta cheese, and eggs in a large bowl; blend with an electric mixer until smooth. Stir in melted butter and maple extract. Add flour mixture to buttermilk mixture and stir until just combined but still lumpy; don't overmix or the waffles will be tough and chewy."},{"recipe_directions":"Lightly spray the waffle iron grids with cooking spray, if needed, following the manufacturer's instructions for cooking. Add about 1 cup of batter depending on the size of your waffle iron, spreading evenly, and sprinkle batter with about 2 to 3 tablespoons pecans."},{"recipe_directions":"Cook until golden brown, 3 to 5 minutes, making sure the waffle is fully cooked before lifting the lid (the steam slows down once the waffles are done). Remove waffle, place on a baking sheet without stacking, cover loosely with aluminum foil, and place in the preheated oven to keep warm. Repeat with remaining batter."},{"recipe_directions":"If you don't have maple extract, go ahead and use vanilla as a substitute. For those busy mornings or when time is at a premium, freeze the waffles individually on a parchment-lined baking sheet. Once frozen, put them in a resealable plastic bag, and then into the freezer. Add the frozen waffle to the toaster and cook until warmed through."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"468\nCalories\n\n\n26g \nFat\n\n\n46g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699653622-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/aRVu41NFi0YybvRnmr8fX9odp-Q=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(639x0:641x2):format(webp)/image-199-9af316b00a51479abd046bae91502f3e.jpg"
@@ -856,59 +1157,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/36071/hawaiian-waffles-with-pineapple-and-coconut/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Hawaiian Waffles with Pineapple and Coconut</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ¼ cups sifted all-purpose flour\n\n\n½ tablespoon white sugar\n\n\n1 teaspoon baking powder\n\n\n¼ teaspoon baking soda\n\n\n¼ teaspoon salt\n\n\n1  egg yolk\n\n\n1 cup sour cream\n\n\n¼ cup coconut milk\n\n\n¾ cup chopped fresh pineapple\n\n\n5 tablespoons unsalted butter, melted\n\n\n2  large egg whites, beaten"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ¼ cups sifted all-purpose flour\n\n\n½ tablespoon white sugar\n\n\n1 teaspoon baking powder\n\n\n¼ teaspoon baking soda\n\n\n¼ teaspoon salt\n\n\n1  egg yolk\n\n\n1 cup sour cream\n\n\n¼ cup coconut milk\n\n\n¾ cup chopped fresh pineapple\n\n\n5 tablespoons unsalted butter, melted\n\n\n2  large egg whites, beaten'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a lightly greased waffle iron."},{"recipe_directions":"In a medium bowl, sift together flour, sugar, baking powder, baking soda and salt."},{"recipe_directions":"In a separate medium bowl, mix egg yolk, sour cream, coconut milk, pineapple and butter. Thoroughly mix in the flour mixture. Gently fold in egg whites."},{"recipe_directions":"Pour the mixture into the prepared waffle iron, and cook until golden brown."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"464\nCalories\n\n\n31g \nFat\n\n\n39g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699653630-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/dKRxxRmhW0IMkAw2bwd4FnA5zTA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3921212-e85c882d7c2f448a9eddb181cc744df2.jpg"
@@ -921,59 +1218,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/255096/kitchen-sink-hash-brown-and-egg-waffle/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Kitchen Sink Hash Brown and Egg Waffle</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 waffles"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n2 cups frozen shredded hash browns, thawed\n\n\n2  eggs, beaten\n\n\n¼ cup milk\n\n\n¼ cup all-purpose flour\n\n\n2 tablespoons diced onion, or more to taste\n\n\n1 tablespoon sriracha sauce, or to taste\n\n\n2 cloves garlic, minced\n\n\n½ teaspoon baking powder\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n2 cups frozen shredded hash browns, thawed\n\n\n2  eggs, beaten\n\n\n¼ cup milk\n\n\n¼ cup all-purpose flour\n\n\n2 tablespoons diced onion, or more to taste\n\n\n1 tablespoon sriracha sauce, or to taste\n\n\n2 cloves garlic, minced\n\n\n½ teaspoon baking powder\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a waffle iron according to manufacturer's instructions; spray with cooking spray."},{"recipe_directions":"Mix hash browns, eggs, milk, flour, onion, sriracha sauce, garlic, baking powder, salt, and pepper together in a bowl to make batter."},{"recipe_directions":"Pour 1/4 of the mixture onto the preheated waffle iron; spread to the edges with a spatula. Cook until golden and warmed through, 5 to 7 minutes. Repeat with remaining batter."},{"recipe_directions":"Half a diced jalapeno and 1/2 tablespoon of sriracha sauce can be substituted for the 1 tablespoon of sriracha sauce if desired."},{"recipe_directions":"Any variety of milk, alternative milk, or 1/4 cup egg whites, can be substituted for the milk."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"141\nCalories\n\n\n8g \nFat\n\n\n22g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699653637-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DQaz7Ei3_W9LtQhDH6xyFMicAFY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3071302-10dc7e2c60cb442abba6bc831fa743dc.jpg"
@@ -986,59 +1279,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/237196/whole-wheat-coconut-oil-waffles/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Whole Wheat Coconut Oil Waffles</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups whole wheat pastry flour\n\n\n2 tablespoons white sugar\n\n\n2 teaspoons baking powder\n\n\n½ teaspoon salt\n\n\n1 ½ cups milk, room temperature\n\n\n⅓ cup virgin coconut oil, melted\n\n\n1  large egg, beaten\n\n\n½ teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups whole wheat pastry flour\n\n\n2 tablespoons white sugar\n\n\n2 teaspoons baking powder\n\n\n½ teaspoon salt\n\n\n1 ½ cups milk, room temperature\n\n\n⅓ cup virgin coconut oil, melted\n\n\n1  large egg, beaten\n\n\n½ teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a waffle iron according to the manufacturer's instructions."},{"recipe_directions":"Whisk flour, sugar, baking powder, and salt together in a bowl; make a well in the center of the flour mixture."},{"recipe_directions":"Beat milk, coconut oil, egg, and vanilla extract together in another bowl; pour into well in the flour mixture and stir until batter is just combined."},{"recipe_directions":"Ladle batter into preheated waffle iron and cook until golden and crisp, 2 to 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"188\nCalories\n\n\n11g \nFat\n\n\n19g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699653651-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/HqghLQvF2fH5ytbMuoUXXtwj9F8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4582215-f544a4e226e544b089a2f8c51fb5e5e6.jpg"
@@ -1051,59 +1340,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/106388/pumpkin-waffles/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Buttermilk Pumpkin Waffles</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n6 \n\n\nYield:\n6 waffles"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup all-purpose flour\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon baking soda\n\n\n¼ teaspoon salt\n\n\n¾ teaspoon ground cinnamon\n\n\n½ teaspoon ground ginger\n\n\n⅛ teaspoon ground nutmeg\n\n\n2 teaspoons canola oil\n\n\n1 teaspoon molasses\n\n\n¼ cup canned pumpkin\n\n\n1 cup buttermilk\n\n\n1  large egg\n\n\n2 tablespoons Splenda No Calorie Sweetener, Granulated\n\n\n1 ½ cups maple syrup sweetened with Splenda Brand Sweetener"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup all-purpose flour\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon baking soda\n\n\n¼ teaspoon salt\n\n\n¾ teaspoon ground cinnamon\n\n\n½ teaspoon ground ginger\n\n\n⅛ teaspoon ground nutmeg\n\n\n2 teaspoons canola oil\n\n\n1 teaspoon molasses\n\n\n¼ cup canned pumpkin\n\n\n1 cup buttermilk\n\n\n1  large egg\n\n\n2 tablespoons Splenda No Calorie Sweetener, Granulated\n\n\n1 ½ cups maple syrup sweetened with Splenda Brand Sweetener'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat waffle iron according to manufacturer's directions; spray lightly with vegetable cooking spray."},{"recipe_directions":"Combine flour, baking powder, soda, salt, cinnamon, ginger, and nutmeg in a large bowl. Set aside."},{"recipe_directions":"Combine oil, molasses, pumpkin and buttermilk in a small bowl; set aside."},{"recipe_directions":"Whisk together egg and Splenda Granulated Sweetener until blended. Add buttermilk mixture, whisking until blended. Add to dry ingredients, stirring just until moistened."},{"recipe_directions":"Pour batter into a hot waffle iron and bake approximately 5 minutes*. Serve with maple syrup."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"162\nCalories\n\n\n3g \nFat\n\n\n32g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699653661-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/er9-kTwT1JgWbdABrdukKVzlCCI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2431x0:2433x2):format(webp)/air-fryer-waffle-egg-in-hole-4x3-d5a10b3cda4e4ddda68481790e098da1.jpeg"
@@ -1117,59 +1402,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/air-fryer-waffle-egg-in-a-hole-7377995</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Air Fryer Waffle Egg in a Hole</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n2 mins\n\n\nCook Time:\n8 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1 serving\n\n\nYield:\n1 egg waffle"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 frozen waffle\n\n\n1 large egg\n\n\nsalt and pepper to taste\n\n\n2 tablespoons shredded cheese\n\n\nmaple syrup to taste"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 frozen waffle\n\n\n1 large egg\n\n\nsalt and pepper to taste\n\n\n2 tablespoons shredded cheese\n\n\nmaple syrup to taste'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"You’ll love the sweet and savory flavors in this easy, all-in-one breakfast. This fun twist on classic egg-in-a-hole is air fried for easy cooking and clean-up. Plus, the frozen waffle cut-out serves as the cutest dipper for scooping up the soft egg. Personalize it with your breakfast favorites, like shredded Parmesan, bacon bits, or even hot sauce."},{"recipe_directions":"Preheat the air fryer to 350 degrees F (175 degrees C)."},{"recipe_directions":"Cut a hole in the center of the frozen waffle using the rim of a cup or glass (about 2 to 3 inches in diameter). Move waffle to a square of parchment paper, then carefully place the parchment paper into the preheated air fryer, along with the small center waffle."},{"recipe_directions":"Crack egg directly into the center of waffle hole; season with salt and pepper to taste. Close the lid and cook until the white of the egg has started to set, about 5 to 6 minutes."},{"recipe_directions":"Remove small center waffle from the air fryer. Sprinkle shredded cheese onto egg waffle, and cook until the cheese is melted and egg white is completely set, about 1 to 2 minutes."},{"recipe_directions":"Transfer egg waffle onto a plate; drizzle with maple syrup and serve immediately."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"444\nCalories\n\n\n24g \nFat\n\n\n39g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699653668-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/LOzG0h9K_LUKtIL2t8INlxTFJ6Q=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1129646-d79e93ed7dda420c9da28fc654841ae4.jpg"
@@ -1182,59 +1463,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/236472/red-velvet-belgian-waffles/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Red Velvet Belgian Waffles</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups all-purpose flour\n\n\n3 tablespoons white sugar\n\n\n4 teaspoons baking powder\n\n\n1 tablespoon unsweetened cocoa powder\n\n\n¾ teaspoon salt\n\n\n1 ¾ cups buttermilk\n\n\n⅓ cup melted butter, cooled\n\n\n2  eggs\n\n\n2 teaspoons vanilla extract\n\n\n½ teaspoon white vinegar\n\n\n1 tablespoon red velvet food coloring (such as Lorann Professional Kitchen) Red Velvet Bakery Emulsion) or as desired"},{"recipe_ingredients":"6 ounces cream cheese, softened\n\n\n6 tablespoons butter, softened\n\n\n2 cups confectioners' sugar (Optional)\n\n\n½ cup whole milk, or more as needed\n\n\n1 teaspoon vanilla extract"},{"recipe_ingredients":"2 tablespoons confectioners' sugar, or to taste (Optional)\n\n\n6 tablespoons whipped cream, or to taste (Optional)\n\n\n1 cup sliced strawberries, or to taste (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups all-purpose flour\n\n\n3 tablespoons white sugar\n\n\n4 teaspoons baking powder\n\n\n1 tablespoon unsweetened cocoa powder\n\n\n¾ teaspoon salt\n\n\n1 ¾ cups buttermilk\n\n\n⅓ cup melted butter, cooled\n\n\n2  eggs\n\n\n2 teaspoons vanilla extract\n\n\n½ teaspoon white vinegar\n\n\n1 tablespoon red velvet food coloring (such as Lorann Professional Kitchen) Red Velvet Bakery Emulsion) or as desired'}, {'recipe_ingredients': "6 ounces cream cheese, softened\n\n\n6 tablespoons butter, softened\n\n\n2 cups confectioners' sugar (Optional)\n\n\n½ cup whole milk, or more as needed\n\n\n1 teaspoon vanilla extract"}, {'recipe_ingredients': "2 tablespoons confectioners' sugar, or to taste (Optional)\n\n\n6 tablespoons whipped cream, or to taste (Optional)\n\n\n1 cup sliced strawberries, or to taste (Optional)"}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Make waffles: Whisk flour, white sugar, baking powder, cocoa powder, and salt together in a medium bowl."},{"recipe_directions":"Beat buttermilk, melted butter, eggs, vanilla, and vinegar together in a large bowl until smooth. Stir in red food coloring. Add flour mixture; mix until just combined."},{"recipe_directions":"Preheat a waffle iron according to manufacturer's instructions."},{"recipe_directions":"While the waffle iron is heating, make glaze: Beat cream cheese and butter together in a large bowl with an electric mixer until smooth and fluffy. Gradually mix in confectioners' sugar, alternating with milk and vanilla, until smooth. Set aside."},{"recipe_directions":"Spoon 1/4 to 1/2 cup waffle batter into the preheated waffle iron. Cook according to manufacturer's directions. Repeat with remaining batter."},{"recipe_directions":"Lightly dust each waffle with confectioners' sugar, drizzle with glaze, and top with whipped cream and strawberries."},{"recipe_directions":"You can substitute Splenda for sugar in waffle batter."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"731\nCalories\n\n\n36g \nFat\n\n\n92g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699653675-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/qTho5teZxI_7MKfkpVe4qmp7Wuw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/334650-14c6c07f637f4369848a7ca891c781ba.jpg"
@@ -1247,59 +1524,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/171978/great-easy-waffles/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Great Easy Waffles</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4 \n\n\nYield:\n4 waffles"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups all-purpose flour\n\n\n2 teaspoons baking powder\n\n\n2 tablespoons white sugar\n\n\n½ teaspoon salt\n\n\n2  egg whites\n\n\n2  egg yolks\n\n\n2 tablespoons grated lemon zest\n\n\n1 teaspoon vanilla extract\n\n\n2 cups milk\n\n\n6 tablespoons butter, melted"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups all-purpose flour\n\n\n2 teaspoons baking powder\n\n\n2 tablespoons white sugar\n\n\n½ teaspoon salt\n\n\n2  egg whites\n\n\n2  egg yolks\n\n\n2 tablespoons grated lemon zest\n\n\n1 teaspoon vanilla extract\n\n\n2 cups milk\n\n\n6 tablespoons butter, melted'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a waffle iron according to manufacturer's instructions."},{"recipe_directions":"Whisk the flour, baking powder, sugar, and salt together in a mixing bowl; set aside. Beat egg whites until foamy in a separate large glass or metal mixing bowl. Whisk the egg yolks, lemon zest, and vanilla extract together in a third bowl; whisk in the milk. Stir in the flour mixture until smooth. Fold in the melted butter and then the beaten egg whites until just incorporated."},{"recipe_directions":"Cook the waffles according to manufacturer's instructions until golden brown."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"506\nCalories\n\n\n23g \nFat\n\n\n61g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699653681-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/41dFabGuqDBsTg81U4dSncaO2GI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1810052-890ace638cde49b2a5dfe731985ee49a.jpg"
@@ -1312,59 +1585,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/23789/nutty-pecan-waffles/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Nutty Pecan Waffles</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups all-purpose flour\n\n\n1 tablespoon baking powder\n\n\n¼ cup sugar\n\n\n½ teaspoon baking soda\n\n\n3  eggs, separated\n\n\n2 cups buttermilk\n\n\n⅓ cup butter, melted\n\n\n½ cup vegetable oil\n\n\n1 ⅔ cups finely chopped pecans"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups all-purpose flour\n\n\n1 tablespoon baking powder\n\n\n¼ cup sugar\n\n\n½ teaspoon baking soda\n\n\n3  eggs, separated\n\n\n2 cups buttermilk\n\n\n⅓ cup butter, melted\n\n\n½ cup vegetable oil\n\n\n1 ⅔ cups finely chopped pecans'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat waffle iron. In a large mixing bowl, sift together flour, baking powder, sugar and baking soda. In a separate bowl, beat together egg yolks and milk. Add milk mixture, butter and oil to flour; stir gently to combine. Beat egg whites until stiff peaks have formed; fold into batter."},{"recipe_directions":"Spray preheated waffle iron with non-stick cooking spray. Pour mix onto hot waffle iron and sprinkle generously with chopped pecans. Cook until golden brown. Keep warm in oven while remaining waffles cook."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"1184\nCalories\n\n\n81g \nFat\n\n\n97g \nCarbs\n\n\n23g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699653687-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BByP0JB3LSJTKCs2fYRdggiWtqY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(767x0:769x2):format(webp)/7892029-09d4185b58c643f7a5af0c7ef61a9b92.jpg"
@@ -1377,59 +1646,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/279550/crispy-eggless-waffles/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Crispy Eggless Waffles</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n10 \n\n\nYield:\n10 mini waffles"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n¾ cup water\n\n\n1 tablespoon water\n\n\n1 ¼ cups all-purpose flour\n\n\n½ teaspoon white sugar\n\n\n¼ teaspoon vanilla extract\n\n\n¼ teaspoon salt\n\n\n1 ¼ cups heavy cream"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n¾ cup water\n\n\n1 tablespoon water\n\n\n1 ¼ cups all-purpose flour\n\n\n½ teaspoon white sugar\n\n\n¼ teaspoon vanilla extract\n\n\n¼ teaspoon salt\n\n\n1 ¼ cups heavy cream'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a mini waffle iron (such as Dash) and spray with nonstick cooking spray."},{"recipe_directions":"Pour 3/4 cup plus 1 tablespoon water into a large bowl. Stir in flour, sugar, vanilla, and salt to make a batter."},{"recipe_directions":"Beat cream in a chilled glass or metal bowl with an electric mixer until soft peaks form. Fold into the batter, being careful not to overmix."},{"recipe_directions":"Ladle a couple of tablespoons of batter onto the preheated iron and cook until golden brown, 3 to 5 minutes. Repeat with remaining batter."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"161\nCalories\n\n\n11g \nFat\n\n\n13g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699653696-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/fQvywh9Vrkv2GofglMSf7gmoJNo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3374022-9abe76b553f24867a20a50d064c95467.jpg"
@@ -1442,59 +1707,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246512/puff-pastry-waffles/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Puff Pastry Waffles</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (17.3 ounce) package frozen puff pastry, thawed\n\n\ncooking spray"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (17.3 ounce) package frozen puff pastry, thawed\n\n\ncooking spray'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Line a cutting board with parchment paper. Unfold puff pastry onto cutting board. Cut each sheet into 4 equal squares."},{"recipe_directions":"Preheat a waffle iron according to manufacturer's instructions. Grease with cooking spray."},{"recipe_directions":"Place one puff pastry square in the preheated waffle iron; cook until golden brown, 3 to 5 minutes. Repeat with remaining puff pastry squares."},{"recipe_directions":"Nonstick waffle irons may not need to be sprayed with cooking spray."},{"recipe_directions":"Please note the difference in puff pastry amount and serving size when using the magazine version of this recipe."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"338\nCalories\n\n\n23g \nFat\n\n\n28g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699653702-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/B7lp9kClo-gjX9xUzRllDOFaCy8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3326-eb2bb022f1594b14959d59551595d403.jpg"
@@ -1507,59 +1768,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/35756/blueberry-waffles-with-fast-blueberry-sauce/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Blueberry Waffles with Fast Blueberry Sauce</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n6 \n\n\nYield:\n6 waffles"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ⅔ cups milk\n\n\n3 large eggs, separated, divided\n\n\n2 cups all-purpose flour\n\n\n2 ¼ teaspoons baking powder\n\n\n½ teaspoon salt\n\n\n¼ cup unsalted butter, melted\n\n\n2/3 cup blueberries"},{"recipe_ingredients":"1 1/2 cups blueberries\n\n\n3 tbsp honey\n\n\n1/2 cup orange juice, divided\n\n\n1 tbsp cornstarch"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ⅔ cups milk\n\n\n3 large eggs, separated, divided\n\n\n2 cups all-purpose flour\n\n\n2 ¼ teaspoons baking powder\n\n\n½ teaspoon salt\n\n\n¼ cup unsalted butter, melted\n\n\n2/3 cup blueberries'}, {'recipe_ingredients': '1 1/2 cups blueberries\n\n\n3 tbsp honey\n\n\n1/2 cup orange juice, divided\n\n\n1 tbsp cornstarch'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Make the waffles: In a medium bowl, whisk together milk and egg yolks. Stir in flour, baking powder, and salt. Stir in melted butter and let stand for about 30 minutes."},{"recipe_directions":"Lightly grease and preheat a waffle iron according to the manufacturer's instructions."},{"recipe_directions":"Beat egg whites in a glass, metal, or ceramic bowl until stiff. Fold into batter with blueberries."},{"recipe_directions":"Working in batches, scoop portions of the batter onto the preheated waffle iron. Cook each waffle until golden brown and the iron stops steaming, 4 to 6 minutes."},{"recipe_directions":"Meanwhile, make the sauce: Stir blueberries, 1/4 cup orange juice, and honey together in a medium saucepan over medium heat. Bring to a boil."},{"recipe_directions":"Mix remaining 1/4 cup orange juice and cornstarch together in a small bowl; stir into the blueberry mixture. Cook, stirring constantly, until thickened. Serve warm over waffles."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"367\nCalories\n\n\n12g \nFat\n\n\n55g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699653711-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/yRDm4SFIiClCLuWboSOBsuh2kyw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4433401-1a03ebfda5794caa8feef66944888255.jpg"
@@ -1572,59 +1829,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/275740/homemade-waffles/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Homemade Waffles</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  eggs\n\n\n2 cups milk, or more as needed\n\n\n½ cup vegetable oil\n\n\n2 tablespoons vanilla extract\n\n\n2 cups all-purpose flour, or more as needed\n\n\n3 tablespoons white sugar\n\n\n1 tablespoon ground cinnamon\n\n\n1 tablespoon ground nutmeg\n\n\n3 teaspoons baking powder\n\n\n1 teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  eggs\n\n\n2 cups milk, or more as needed\n\n\n½ cup vegetable oil\n\n\n2 tablespoons vanilla extract\n\n\n2 cups all-purpose flour, or more as needed\n\n\n3 tablespoons white sugar\n\n\n1 tablespoon ground cinnamon\n\n\n1 tablespoon ground nutmeg\n\n\n3 teaspoons baking powder\n\n\n1 teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a waffle iron according to manufacturer's instructions."},{"recipe_directions":"Whisk eggs together in a large bowl until fluffy. Mix in 2 cups milk, vegetable oil, and vanilla extract until combined."},{"recipe_directions":"Combine 2 cups flour, sugar, cinnamon, nutmeg, baking powder, and salt in a separate bowl. Slowly pour flour mixture into egg mixture, stirring as you pour. Mix until few to no lumps remain, being careful not to overmix. Add more flour if batter is too thin, or more milk if batter is too sticky or thick."},{"recipe_directions":"Ladle some of the batter onto the preheated waffle iron. Cook until waffle is golden brown and the iron stops steaming, 2 to 5 minutes. Repeat with remaining batter."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"424\nCalories\n\n\n22g \nFat\n\n\n45g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699653720-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/yeSeA1OoXGNgnCHrGDNGAW-Btn0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1884221-norwegian-waffles-Vickie-Spencer-4x3-1-cfe606959d8a4c1aae958d2b40fc9d0b.jpg"
@@ -1638,59 +1891,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/55065/norwegian-waffles/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Norwegian Waffles</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 waffles"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups all-purpose flour\n\n\n3 ½ teaspoons baking powder\n\n\n2 large eggs\n\n\n2 tablespoons white sugar\n\n\n1 ¾ cups milk\n\n\n3 tablespoons melted shortening\n\n\n1 teaspoon salt\n\n\n1 teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups all-purpose flour\n\n\n3 ½ teaspoons baking powder\n\n\n2 large eggs\n\n\n2 tablespoons white sugar\n\n\n1 ¾ cups milk\n\n\n3 tablespoons melted shortening\n\n\n1 teaspoon salt\n\n\n1 teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a waffle iron according to manufacturer's instructions."},{"recipe_directions":"Sift flour and baking powder together into a bowl."},{"recipe_directions":"Beat eggs and sugar in a separate bowl with an electric mixer until fluffy. Add milk, melted shortening, salt, and vanilla; mix until well blended. Mix in flour mixture."},{"recipe_directions":"Spoon 2/3 cup batter onto the preheated waffle iron. Close the iron and cook until waffle is golden brown and the iron stops steaming, about 5 minutes. Repeat to cook remaining waffles."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"374\nCalories\n\n\n15g \nFat\n\n\n48g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699653729-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/xfyK8FrgvaT6l2tbPnItCW2ptQU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1948x1934:1950x1936):format(webp)/254805_zucchini-waffles-green-waffles_Rita-4x3-3dbaf49995a240c8ab1585bf14bed7cb.jpg"
@@ -1704,59 +1953,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/254805/zucchini-waffles-green-waffles/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Zucchini Waffles (Green Waffles)</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n8 \n\n\nYield:\n8 waffles"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups shredded zucchini\n\n\n2  eggs\n\n\n1 tablespoon vegetable oil\n\n\n¼ teaspoon onion powder\n\n\n1 pinch salt\n\n\n½ cup dry potato flakes\n\n\n¼ teaspoon baking powder"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups shredded zucchini\n\n\n2  eggs\n\n\n1 tablespoon vegetable oil\n\n\n¼ teaspoon onion powder\n\n\n1 pinch salt\n\n\n½ cup dry potato flakes\n\n\n¼ teaspoon baking powder'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a waffle iron according to manufacturer's instructions."},{"recipe_directions":"Mix zucchini, eggs, vegetable oil, onion powder, and salt together in a bowl. Stir in potato flakes and baking powder; mix until batter is combined."},{"recipe_directions":"Pour 1/2 cup of the batter onto the center of the waffle iron. Close the lid; cook until iron stops steaming and waffle is crisp, about 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"51\nCalories\n\n\n3g \nFat\n\n\n4g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699653736-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/9QVELnhD8HZ5k2l4NZkAmxg7gOg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/8162096-sour-cream-waffles-Drew-4x3-1-2000-1b16103e210843069d8e8fa73bbc2cc9.jpg"
@@ -1770,59 +2015,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/91027/sour-cream-waffles/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Sour Cream Waffles</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup water\n\n\n½ cup sour cream\n\n\n½ cup plain yogurt\n\n\n¼ teaspoon white vinegar\n\n\n2 cups all-purpose flour\n\n\n2 teaspoons baking powder\n\n\n1 teaspoon baking soda\n\n\n½ teaspoon salt\n\n\n2  eggs, beaten"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup water\n\n\n½ cup sour cream\n\n\n½ cup plain yogurt\n\n\n¼ teaspoon white vinegar\n\n\n2 cups all-purpose flour\n\n\n2 teaspoons baking powder\n\n\n1 teaspoon baking soda\n\n\n½ teaspoon salt\n\n\n2  eggs, beaten'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a bowl, mix together water, sour cream, yogurt, and vinegar."},{"recipe_directions":"Sift flour into a separate, large bowl; stir in baking powder, baking soda, and salt."},{"recipe_directions":"Add sour cream mixture and eggs to flour mixture; blend until smooth."},{"recipe_directions":"Cook on a lightly greased waffle iron until golden brown; lift off with a fork."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"345\nCalories\n\n\n10g \nFat\n\n\n52g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699653741-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/UgRjdA_lo2GCP2f-HD5O4MTAUmU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1499x0:1501x2):format(webp)/6689710-06c1297eba574c50b668bcd3f598fc27.jpg"
@@ -1835,59 +2076,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/257737/waffle-cones/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Waffle Cones</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n3 mins\n\n\nTotal Time:\n23 mins\n\n\nServings:\n12 \n\n\nYield:\n12 cones"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  vanilla bean, split\n\n\n1 cup butter\n\n\n1 cup packed dark brown sugar\n\n\n1 cup egg whites\n\n\n1 tablespoon vanilla extract\n\n\n1 teaspoon salt\n\n\n1 ¼ cups all-purpose flour"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  vanilla bean, split\n\n\n1 cup butter\n\n\n1 cup packed dark brown sugar\n\n\n1 cup egg whites\n\n\n1 tablespoon vanilla extract\n\n\n1 teaspoon salt\n\n\n1 ¼ cups all-purpose flour'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Scrape vanilla bean seeds into a small saucepan over medium heat; add butter and cook until melted, 2 to 3 minutes. Whisk vanilla butter, brown sugar, egg whites, vanilla extract, and salt together in a bowl; add flour and beat until batter is smooth."},{"recipe_directions":"Preheat a waffle cone maker according to manufacturer's instructions."},{"recipe_directions":"Pour batter into the preheated waffle maker and cook according to instructions."},{"recipe_directions":"Immediately wrap around a cone-shaped dowel or press into a bowl-shaped mold. Let each cone or bowl cool for a few minutes. Store in an airtight container for up to 2 days."},{"recipe_directions":"If you don't have a waffle cone maker, you can cook the batter like a crepe on your electric skillet."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"270\nCalories\n\n\n16g \nFat\n\n\n29g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699653746-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/_il0OpYA2Xzls0ObJVwITDe_MN4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/886185-a27c46ff66964206a8f33ba625b9b259.jpg"
@@ -1900,59 +2137,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/108676/rich-yogurt-waffles/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Rich Yogurt Waffles</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 waffles"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 large eggs\n\n\n1 ½ cups vanilla fat-free yogurt\n\n\n1 ¼ cups all-purpose flour\n\n\n½ cup shortening\n\n\n2 teaspoons baking powder\n\n\n1 teaspoon baking soda\n\n\n½ teaspoon kosher salt"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 large eggs\n\n\n1 ½ cups vanilla fat-free yogurt\n\n\n1 ¼ cups all-purpose flour\n\n\n½ cup shortening\n\n\n2 teaspoons baking powder\n\n\n1 teaspoon baking soda\n\n\n½ teaspoon kosher salt'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a waffle iron according to manufacturer's instructions."},{"recipe_directions":"Beat eggs in a large mixing bowl. Add yogurt, flour, shortening, baking powder, baking soda, and salt to eggs; mix until smooth."},{"recipe_directions":"Pour batter onto the preheated waffle iron. Cook until no longer steaming, about 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"501\nCalories\n\n\n29g \nFat\n\n\n47g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699653753-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/dKbl3Qptik2tSZOdZyLddqpSWiQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1151x0:1153x2):format(webp)/5834937-5a6035362a254f4a928accbf1c39733b.jpg"
@@ -1965,59 +2198,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/239490/perfect-pumpkin-spice-waffles/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Perfect Pumpkin Spice Waffles</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 large eggs, separated\n\n\n1 pint buttermilk, shaken vigorously\n\n\n1 cup canned solid-pack pumpkin\n\n\n6 tablespoons unsalted butter, melted\n\n\n2 ½ cups all-purpose flour\n\n\n⅓ cup packed light brown sugar\n\n\n2 ¼ teaspoons baking powder\n\n\n2 teaspoons ground cinnamon\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon ground ginger\n\n\n½ teaspoon salt\n\n\n¼ teaspoon ground cloves\n\n\ncooking spray"}]</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 large eggs, separated\n\n\n1 pint buttermilk, shaken vigorously\n\n\n1 cup canned solid-pack pumpkin\n\n\n6 tablespoons unsalted butter, melted\n\n\n2 ½ cups all-purpose flour\n\n\n⅓ cup packed light brown sugar\n\n\n2 ¼ teaspoons baking powder\n\n\n2 teaspoons ground cinnamon\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon ground ginger\n\n\n½ teaspoon salt\n\n\n¼ teaspoon ground cloves\n\n\ncooking spray'}]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a waffle iron according to manufacturer's instructions."},{"recipe_directions":"Beat egg whites in a glass or metal bowl until soft peaks form. Lift your beater or whisk straight up: egg whites will form soft mounds rather than a sharp peak."},{"recipe_directions":"Beat egg yolks, buttermilk, pumpkin, and butter together with a whisk in a large bowl until smooth; add flour, brown sugar, baking powder, cinnamon, baking soda, ginger, salt, and cloves. Stir mixture with the whisk just until you have a smooth batter."},{"recipe_directions":"Fold egg whites into batter just until combined."},{"recipe_directions":"Prepare cooking surfaces of your waffle iron with cooking spray. Ladle about 2/3 cup batter into the prepared iron and cook until browned, 4 to 5 minutes."},{"recipe_directions":"Waffle irons come in many varieties. Consult the manufacturer directions for best guidance on batter amounts and cooking times."}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"327\nCalories\n\n\n12g \nFat\n\n\n45g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699653760-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Ls8-QNl55FaWVGzl_ROMeKD8s5E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1710x0:1712x2):format(webp)/5112458-61ab2bab516346c5a02f78612c7823fe.jpg"
@@ -2030,59 +2259,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/219469/scandinavian-sweetheart-waffles/</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Scandinavian Sweetheart Waffles</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n5 \n\n\nYield:\n5 waffles"}]</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  eggs, separated\n\n\n¼ cup white sugar\n\n\n1 teaspoon vanilla sugar\n\n\n¼ cup water\n\n\n3 tablespoons butter, melted\n\n\n1 cup buttermilk\n\n\n1 ½ cups all-purpose flour\n\n\n¼ teaspoon ground cardamom\n\n\n1 pinch salt"}]</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  eggs, separated\n\n\n¼ cup white sugar\n\n\n1 teaspoon vanilla sugar\n\n\n¼ cup water\n\n\n3 tablespoons butter, melted\n\n\n1 cup buttermilk\n\n\n1 ½ cups all-purpose flour\n\n\n¼ teaspoon ground cardamom\n\n\n1 pinch salt'}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place egg yolks into a large mixing bowl with white sugar; beat until light and frothy. Mix in vanilla sugar and water until evenly combined; stir in 1/2 of the melted butter, 1/2 of the buttermilk, and 1/2 of the flour. When mixture is smooth, mix in remaining butter, buttermilk, flour, cardamom, and salt; beat again until smooth."},{"recipe_directions":"In a separate bowl, beat egg whites with an electric mixer until they form stiff peaks; gently fold egg whites into batter, incorporating as much volume as possible."},{"recipe_directions":"Preheat a waffle iron according to the manufacturer's directions."},{"recipe_directions":"Spoon about 1/3 cup of batter into the preheated waffle iron, close the lid, and cook until the waffle is golden brown, about 5 minutes. Remove waffle to a plate. If using a heart-shaped iron, break the waffle into individual hearts to serve. Repeat with remaining batter."},{"recipe_directions":"Almost all Scandinavian specialty shops carry both vanilla sugar and nonstick heart-shaped waffle irons. If vanilla sugar is not available, vanilla extract may be substituted."}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"288\nCalories\n\n\n10g \nFat\n\n\n42g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699653773-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/AlgsoHIKyHe4w-Nog8ntd1iqivo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/7914197-yeast-waffles-k-freitag-4x3-1-558a42222f9441fa8b95334f49715513.jpg"
@@ -2096,59 +2321,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/24844/yeast-waffles/</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Yeast Waffles</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 8 hrs 20 mins\n\n\nTotal Time:\n 8 hrs 45 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups milk\n\n\n1 (.25 ounce) package active dry yeast\n\n\n½ cup warm water (110 degrees F/45 degrees C)\n\n\n½ cup butter, melted\n\n\n1 teaspoon salt\n\n\n1 teaspoon white sugar\n\n\n3 cups sifted unbleached all-purpose flour\n\n\n2  eggs, slightly beaten\n\n\n½ teaspoon baking soda"}]</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups milk\n\n\n1 (.25 ounce) package active dry yeast\n\n\n½ cup warm water (110 degrees F/45 degrees C)\n\n\n½ cup butter, melted\n\n\n1 teaspoon salt\n\n\n1 teaspoon white sugar\n\n\n3 cups sifted unbleached all-purpose flour\n\n\n2  eggs, slightly beaten\n\n\n½ teaspoon baking soda'}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Warm milk in a small saucepan until it bubbles, then remove from heat."},{"recipe_directions":"Dissolve yeast in warm water in a small bowl. Let stand until creamy, about 10 minutes."},{"recipe_directions":"Combine milk, yeast mixture, butter, salt, sugar, and flour in a large bowl. Mix thoroughly with an electric mixer until batter is smooth. Cover and let stand at room temperature overnight."},{"recipe_directions":"The next morning, preheat a waffle iron."},{"recipe_directions":"Stir beaten eggs and baking soda into batter; beat well."},{"recipe_directions":"Spray the hot waffle iron with nonstick cooking spray. Pour mix onto waffle iron and cook until golden brown."}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"434\nCalories\n\n\n19g \nFat\n\n\n53g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699653779-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/LSVtTjUpfH13pJFEGk9VbaEYVJY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3598082-61a94f8a01484367a2f4b9907154270f.jpg"
@@ -2161,59 +2382,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/202674/brown-sugar-bacon-waffles/</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Brown Sugar Bacon Waffles</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n6 \n\n\nYield:\n6 waffles"}]</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n8 slices bacon\n\n\n2 tablespoons brown sugar\n\n\n3 cups flour\n\n\n½ cup brown sugar\n\n\n1 tablespoon baking powder\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon salt\n\n\n4  eggs\n\n\n2 ½ cups buttermilk\n\n\n⅔ cup vegetable oil\n\n\n½ teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n8 slices bacon\n\n\n2 tablespoons brown sugar\n\n\n3 cups flour\n\n\n½ cup brown sugar\n\n\n1 tablespoon baking powder\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon salt\n\n\n4  eggs\n\n\n2 ½ cups buttermilk\n\n\n⅔ cup vegetable oil\n\n\n½ teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C). Spray a baking sheet with cooking spray."},{"recipe_directions":"Arrange bacon on the prepared baking sheet, and sprinkle with 2 tablespoons brown sugar. Bake in the preheated oven until bacon is crispy and brown sugar is caramelized, 10 to 15 minutes."},{"recipe_directions":"Immediately remove bacon to a cutting board; cut into small pieces and set aside."},{"recipe_directions":"Preheat a waffle iron."},{"recipe_directions":"Whisk flour, 1/2 cup brown sugar, baking powder, baking soda, and salt together in a large bowl. Beat eggs, buttermilk, vegetable oil, and vanilla together in a separate bowl; fold wet mixture into flour mixture. Add bacon and stir, being careful to not over mix."},{"recipe_directions":"Spray the preheated waffle iron with cooking spray. Ladle batter into waffle iron and cook until golden brown; serve hot."}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"790\nCalories\n\n\n46g \nFat\n\n\n76g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699653785-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/nqtJ3OzI5TNumCYR6b8XA6KUPaE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1116562-waffle-iron-cornbread-missrochester-4x3-1-3fb9e107417346abad45f7aa9126a23e.jpg"
@@ -2227,59 +2444,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/236853/waffle-iron-cornbread/</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Waffle Iron Cornbread</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup yellow cornmeal\n\n\n½ cup all-purpose flour\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon baking soda\n\n\n½ teaspoon salt\n\n\n¼ teaspoon ground paprika\n\n\n1 ½ cups buttermilk\n\n\n3 tablespoons melted butter\n\n\n1  egg, slightly beaten"}]</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup yellow cornmeal\n\n\n½ cup all-purpose flour\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon baking soda\n\n\n½ teaspoon salt\n\n\n¼ teaspoon ground paprika\n\n\n1 ½ cups buttermilk\n\n\n3 tablespoons melted butter\n\n\n1  egg, slightly beaten'}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat and lightly grease a waffle iron according to the manufacturer's instructions."},{"recipe_directions":"Whisk cornmeal, flour, baking powder, baking soda, salt, and paprika together in a bowl. Stir buttermilk, butter, and egg together in a separate bowl; stir into flour mixture until batter is just blended."},{"recipe_directions":"Ladle 1/2 to 3/4 cup batter into the preheated waffle iron; cook waffle according to manufacturer's instructions until golden brown, about 5 minutes. Repeat with remaining batter."}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"316\nCalories\n\n\n12g \nFat\n\n\n44g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699653790-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Zd3-AjhQYi0eTGgs7E_lnviH9Co=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1538451-gluten-free-waffles-Buckwheat-Queen-4x3-1-3460a0febecd4387a65db1500608e88f.jpg"
@@ -2293,59 +2506,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/239606/gluten-free-waffles/</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Gluten-Free Waffles</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n5 \n\n\nYield:\n5 servings"}]</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ⅓ cups milk\n\n\n1 cup buckwheat flour\n\n\n1 cup almond flour\n\n\n⅓ cup vegetable oil\n\n\n2  eggs\n\n\n1 tablespoon baking powder\n\n\n2 teaspoons white sugar\n\n\n1 teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ⅓ cups milk\n\n\n1 cup buckwheat flour\n\n\n1 cup almond flour\n\n\n⅓ cup vegetable oil\n\n\n2  eggs\n\n\n1 tablespoon baking powder\n\n\n2 teaspoons white sugar\n\n\n1 teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a waffle iron according to manufacturer's instructions."},{"recipe_directions":"Stir milk, buckwheat, almond flour, vegetable oil, eggs, baking powder, sugar, and salt together in a bowl until batter is smooth."},{"recipe_directions":"Working in batches, ladle batter into preheated waffle iron and cook until waffles are golden and crisp, 3 to 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"278\nCalories\n\n\n19g \nFat\n\n\n23g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699653795-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/MafZSYiZwXUhAoXfn5jFGprrobs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(319x263:321x265):format(webp)/1036467-zucchini-oatmeal-waffles-Deb-C-4x3-1-1af43e578368482482bcc99087baf3d3.jpg"
@@ -2359,59 +2568,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/232155/zucchini-oatmeal-waffles/</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Zucchini Oatmeal Waffles</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups milk\n\n\n1 cup shredded zucchini\n\n\n2  eggs\n\n\n2 tablespoons butter, melted\n\n\n1 ½ cups whole wheat flour\n\n\n1 cup quick-cooking oats\n\n\n1 tablespoon baking powder\n\n\n2 tablespoons brown sugar\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups milk\n\n\n1 cup shredded zucchini\n\n\n2  eggs\n\n\n2 tablespoons butter, melted\n\n\n1 ½ cups whole wheat flour\n\n\n1 cup quick-cooking oats\n\n\n1 tablespoon baking powder\n\n\n2 tablespoons brown sugar\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a waffle iron according to manufacturer's instructions."},{"recipe_directions":"Stir milk, zucchini, eggs, and butter in a large bowl until evenly blended. Combine flour, oats, baking powder, brown sugar, salt, and cinnamon in another bowl; gradually stir flour mixture into zucchini mixture."},{"recipe_directions":"Ladle batter into the preheated waffle iron. Cook until waffles are golden and crisp, about 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"198\nCalories\n\n\n6g \nFat\n\n\n30g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699653801-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8aoXJ7VuVnqlw2XmUN6qq3dGkdU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3479253-protein-waffles-Jaden-Ruesch-4x3-1-596842980ef04758a0da22da0b20d6c3.jpg"
@@ -2425,59 +2630,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/241252/protein-waffles/</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Protein Waffles</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n3 \n\n\nYield:\n3 waffles"}]</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup old-fashioned oats\n\n\n1 cup cottage cheese\n\n\n2  eggs\n\n\n3  egg whites\n\n\n1 teaspoon honey\n\n\n1 splash pure vanilla extract, or to taste\n\n\n1 pinch ground cinnamon, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup old-fashioned oats\n\n\n1 cup cottage cheese\n\n\n2  eggs\n\n\n3  egg whites\n\n\n1 teaspoon honey\n\n\n1 splash pure vanilla extract, or to taste\n\n\n1 pinch ground cinnamon, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a waffle iron according to manufacturer's instructions."},{"recipe_directions":"Blend oats, cottage cheese, eggs, egg whites, honey, vanilla extract, and cinnamon in a blender until creamy."},{"recipe_directions":"Ladle batter into preheated waffle iron according to manufacturer directions and cook the waffles until golden and crisp, about 5 minutes. Repeat until entire batch of batter is used."}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"254\nCalories\n\n\n9g \nFat\n\n\n23g \nCarbs\n\n\n21g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699653807-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hfEne41AaiiyZip1fKuTflPydFE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(639x0:641x2):format(webp)/image-322-9dcf046a6ded425d92f1cfade172254f.jpg"
@@ -2491,59 +2692,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/165384/bananas-foster-belgian-waffles/</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Bananas Foster Belgian Waffles</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4 \n\n\nYield:\n4 waffles"}]</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ⅓ cups all-purpose flour\n\n\n¾ teaspoon baking soda\n\n\n2 teaspoons white sugar\n\n\n¼ teaspoon salt\n\n\n3  eggs\n\n\n1 ½ teaspoons vanilla extract\n\n\n1 ⅓ cups milk\n\n\n⅓ cup melted butter\n\n\n2 teaspoons baking powder\n\n\n¼ cup butter\n\n\n⅔ cup brown sugar\n\n\n2 teaspoons rum flavored extract\n\n\n2 teaspoons vanilla extract\n\n\n½ teaspoon ground cinnamon\n\n\n¼ cup whole pecans\n\n\n½ cup pancake syrup (i.e. Mrs. Butterworth's®)\n\n\n3  bananas, cut into 1/2 inch slices\n\n\n1 cup heavy cream\n\n\n¼ teaspoon vanilla extract\n\n\n1 tablespoon confectioners' sugar"}]</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "1 ⅓ cups all-purpose flour\n\n\n¾ teaspoon baking soda\n\n\n2 teaspoons white sugar\n\n\n¼ teaspoon salt\n\n\n3  eggs\n\n\n1 ½ teaspoons vanilla extract\n\n\n1 ⅓ cups milk\n\n\n⅓ cup melted butter\n\n\n2 teaspoons baking powder\n\n\n¼ cup butter\n\n\n⅔ cup brown sugar\n\n\n2 teaspoons rum flavored extract\n\n\n2 teaspoons vanilla extract\n\n\n½ teaspoon ground cinnamon\n\n\n¼ cup whole pecans\n\n\n½ cup pancake syrup (i.e. Mrs. Butterworth's®)\n\n\n3  bananas, cut into 1/2 inch slices\n\n\n1 cup heavy cream\n\n\n¼ teaspoon vanilla extract\n\n\n1 tablespoon confectioners' sugar"}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a Belgium waffle iron. Whisk together the flour, baking soda, baking powder, white sugar, and salt in a bowl; set aside."},{"recipe_directions":"Whisk together the eggs, 1 1/2 teaspoons vanilla extract, and milk in a bowl. Stir in the melted butter and flour mixture until a slightly lumpy batter forms. Cook the waffles in the preheated iron until steam stops coming out of the seam, about 2 minutes."},{"recipe_directions":"Meanwhile, melt 1/4 cup of butter in a saucepan over medium heat. Stir in the brown sugar, rum extract, 2 teaspoons vanilla extract, and cinnamon. Bring to a simmer, the stir in the pecans and continue simmering for 1 minute. Stir in the pancake syrup and bananas, continue cooking until the bananas soften, about 4 minutes."},{"recipe_directions":"Beat the heavy cream, 1/4 teaspoon of vanilla and confectioners' sugar with an electric mixer in a medium bowl until firm peaks form."},{"recipe_directions":"Once waffles are done, spoon bananas Foster sauce over waffle and top with a dollop of whip cream."}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"1096\nCalories\n\n\n60g \nFat\n\n\n128g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699653812-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/NNvdCiTHwyJyzjnYsqeJT0jNKks=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4476166-healthy-multigrain-chia-waffles-ashley_mcsmiley-4x3-1-18a31525b7c0424696cadc015f93ee07.jpg"
@@ -2557,59 +2754,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/239077/healthy-multigrain-chia-waffles/</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Healthy Multigrain Chia Waffles</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n1 ¾ cups almond milk\n\n\n½ cup unsweetened applesauce\n\n\n1  egg, beaten\n\n\n2 tablespoons chia seeds\n\n\n1 teaspoon vanilla extract\n\n\n1 ¼ cups whole wheat flour\n\n\n½ cup rolled oats\n\n\n¼ cup flax seed meal\n\n\n4 teaspoons baking powder\n\n\n2 teaspoons white sugar, or more to taste\n\n\n¼ teaspoon salt (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n1 ¾ cups almond milk\n\n\n½ cup unsweetened applesauce\n\n\n1  egg, beaten\n\n\n2 tablespoons chia seeds\n\n\n1 teaspoon vanilla extract\n\n\n1 ¼ cups whole wheat flour\n\n\n½ cup rolled oats\n\n\n¼ cup flax seed meal\n\n\n4 teaspoons baking powder\n\n\n2 teaspoons white sugar, or more to taste\n\n\n¼ teaspoon salt (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a waffle iron according to the manufacturer's instructions; spray the inside with cooking spray."},{"recipe_directions":"Whisk almond milk, applesauce, egg, chia seeds, and vanilla extract together in a bowl; let sit until chia seeds start to thicken mixture, about 2 minutes."},{"recipe_directions":"Whisk flour, oats, flax seed meal, baking powder, sugar, and salt into almond milk mixture until batter is smooth."},{"recipe_directions":"Scoop 1/2 cup batter into the preheated waffle iron and cook until crisp and golden, about 5 minutes per waffle. Repeat with remaining batter."},{"recipe_directions":"These waffles freeze beautifully. Spray a baking sheet with cooking spray. Flash-freeze the waffles for 30 minutes. Place frozen waffles in a freezer bag. Toast individually frozen waffles in a toaster oven for 5 minutes."},{"recipe_directions":"Before serving, place cooked waffles on paper towels to avoid sogginess."}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"147\nCalories\n\n\n4g \nFat\n\n\n24g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699653821-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/f74hq2jOPuKy0SltDeI9Y4ExpA4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(318x0:320x2):format(webp)/waffles-1caac02e66f54231a48ccf7d316d3730.jpg"
@@ -2621,59 +2814,55 @@
 14 Foods You Can Make in Your Waffle Iron That Aren't Waffles</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/waffle-maker-recipes/</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>14 Foods You Can Make in Your Waffle Iron That Aren't Waffles</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"While we all love a good waffle, your waffle iron can be used for a whole lot more than its name implies. Heat up your waffle maker, and whip out batches of waffled falafel, perfectly crispy grilled cheeses, or even brownie bites. Our 14 waffle iron recipes will show you just how valuable this kitchen tool really is."},{"recipe_directions":"Just because you're not filling it with batter doesn't mean you can't use the waffle iron for breakfast. Hash browns become perfectly crispy after just a few minutes. Slice and serve on the side, or make it your breakfast base by topping it with an egg, crumbled bacon, and more."},{"recipe_directions":"\"The sandwich gets super crispy but the cheese is still soft and gooey inside the little squares,\" says recipe creator Buckwheat Queen. \"It's my 'go to' method for grilled cheese now.\""},{"recipe_directions":"Often deep-fried, falafel get a healthier twist with this waffle iron version. Serve with a scoop of hummus, chopped veggies, and lots and lots of fresh herbs."},{"recipe_directions":"Stuffed with bacon, cheese, and chiles, these waffles are nothing like your average cornbread recipe. Serve a slice on the side of soup, or loaded up your cornbread waffles with a ladle of chili."},{"recipe_directions":"The waffle iron is great for whipping up a quick dessert with this easy brownie recipe. Dollops of batter are cooked until just done, begging to be served hot with a scoop of ice cream or whipped cream."},{"recipe_directions":"Make an all-in-one breakfast with your waffle iron. Hash browns, eggs, and sriracha combine for this savory morning dish."},{"recipe_directions":"\"Making French toast in your waffle iron combines the best of both worlds,\" says recipe creator foodelicious.\" You get all the custardy richness of French toast plus waffle's signature crispy ridges.\""},{"recipe_directions":"Creator Snacking in the Kitchen describes this recipe as, \"Baked chicken nuggets are coated in savory waffle batter and cooked until crisp and golden in a waffle iron. Dip in barbeque sauce or maple syrup and gobble them up!\""},{"recipe_directions":"Leftover mashed potatoes lingering in your fridge? Doll them up with some onions, garlic, and a little flour to create these perfectly fluffy potato waffles."},{"recipe_directions":"Crunchy on the outside and tender on the inside, these bite-size puff pastry pieces are perfect for sweet snacking. Serve with a drizzle of maple syrup, nut butter, or fruit preserves."},{"recipe_directions":"Delicious for breakfast or dinner, these veggie-packed patties are ready in just 10 minutes with the waffle iron. Recipe creator Soup Loving Nicole suggests serving them with a drizzle of cheese sauce and a fried egg on top."},{"recipe_directions":"Equal parts sweet and savory, this decadent breakfast sandwich will wow guests for your next brunch get-together. Canned cinnamon rolls are cooked until slightly crispy in the waffle iron, then loaded up with layers of ham, cheese, and eggs."},{"recipe_directions":"Ready in less than 15 minutes, these waffled pizzas are even faster than getting delivery. Pre-made pizza dough keeps things simple, just layer it up with your favorite toppings."},{"recipe_directions":"With each cookie needing only one to two minutes in the waffle iron, this recipe is perfect for satisfying a sudden-onset sugar craving."}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699653827-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BQZs9S6N3LyiL2vjgXkFsxG3BdA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4478169-banana-egg-waffles-Kathleen-4x3-1-3297bcab07504ffea8f9331e9de9a939.jpg"
@@ -2687,59 +2876,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/235675/banana-egg-waffles/</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Banana Egg Waffles</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n6 \n\n\nYield:\n6 waffles"}]</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n6  eggs, beaten\n\n\n3  bananas, mashed\n\n\n½ teaspoon vanilla extract\n\n\n½ cup peanut butter, melted\n\n\n1 cup oats (Optional)\n\n\n½ cup chocolate chips (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n6  eggs, beaten\n\n\n3  bananas, mashed\n\n\n½ teaspoon vanilla extract\n\n\n½ cup peanut butter, melted\n\n\n1 cup oats (Optional)\n\n\n½ cup chocolate chips (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a waffle iron according to manufacturer's instructions and prepare surfaces with cooking spray."},{"recipe_directions":"Whisk eggs, bananas, and vanilla extract together in a large bowl until smooth. Stir peanut butter into the egg mixture until smooth. Fold oats and chocolate chips through the egg mixture."},{"recipe_directions":"Cook batter on waffle iron according to manufacturer's instructions until golden brown, about 3 minutes."}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"370\nCalories\n\n\n21g \nFat\n\n\n36g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699653832-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/KU-vjz8_zGSyyLzq3wOJCED7Kno=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/Eggnog-Waffles-lutzflcat-1x1-1-2000-d735e6aaede348be995d96efe88655b7.jpg"
@@ -2753,59 +2938,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/269426/eggnog-waffles/</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Eggnog Waffles</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 waffles"}]</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups all-purpose flour\n\n\n1 teaspoon baking powder\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon salt\n\n\n2 cups eggnog\n\n\n2  eggs, beaten\n\n\n4 tablespoons butter, melted"}]</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups all-purpose flour\n\n\n1 teaspoon baking powder\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon salt\n\n\n2 cups eggnog\n\n\n2  eggs, beaten\n\n\n4 tablespoons butter, melted'}]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix flour, baking powder, baking soda, and salt together in a bowl. Add eggnog, eggs, and butter; mix well."},{"recipe_directions":"Preheat a waffle iron according to manufacturer's instructions. Pour 1/4 of the batter into the preheated iron and cook until waffle is crisp and golden, about 5 minutes. Repeat with remaining batter."}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"537\nCalories\n\n\n24g \nFat\n\n\n65g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699653837-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/SVRPkdeBrv2jFIYEktSXQ_7YWOE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/280130-5c3ccc1d5a5148518ffdf2eadd697601.jpg"
@@ -2818,59 +2999,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/25220/moms-best-waffles/</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Mom's Best Waffles</t>
         </is>
       </c>
-      <c r="G43" s="1" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups all-purpose flour\n\n\n2 teaspoons baking powder\n\n\n2 tablespoons white sugar\n\n\n1 teaspoon salt\n\n\n2 cups milk\n\n\n2  eggs\n\n\n2 tablespoons vegetable oil"}]</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups all-purpose flour\n\n\n2 teaspoons baking powder\n\n\n2 tablespoons white sugar\n\n\n1 teaspoon salt\n\n\n2 cups milk\n\n\n2  eggs\n\n\n2 tablespoons vegetable oil'}]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large bowl, stir together flour, baking powder, sugar and salt. Add milk, eggs and oil; mix well."},{"recipe_directions":"Spray preheated waffle iron with non-stick cooking spray. Pour mix onto hot waffle iron. Cook until golden brown."}]</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"410\nCalories\n\n\n12g \nFat\n\n\n60g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699653842-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ZVwiZQym7Y2mbGV6Gzhs5SQj7MQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1001712-bd32a81a7e3c47368a8b13b54d13a37c.jpg"
@@ -2883,59 +3060,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/22183/waffles-ii/</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Waffles II</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups all-purpose flour\n\n\n4 teaspoons baking powder\n\n\n¼ teaspoon salt\n\n\n1 ½ cups milk\n\n\n6 tablespoons vegetable oil\n\n\n2  eggs, separated"}]</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups all-purpose flour\n\n\n4 teaspoons baking powder\n\n\n¼ teaspoon salt\n\n\n1 ½ cups milk\n\n\n6 tablespoons vegetable oil\n\n\n2  eggs, separated'}]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat waffle iron. In a large mixing bowl, sift together flour, baking powder and salt. Stir in milk, oil and egg yolks until mixture is smooth. In a separate bowl, beat egg whites until soft peaks form. Gently fold egg whites into batter."},{"recipe_directions":"Spray preheated waffle iron with non-stick cooking spray. Pour mix onto hot waffle iron. Cook until golden; serve hot."}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"492\nCalories\n\n\n25g \nFat\n\n\n53g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699653854-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/zvZ3WioKZ-16-CPSaMNDVaINiaM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/633609-whole-grain-waffles-Alberta-Rose-1x1-1-c82cdef8fd284432bd9e19b5b937e4ce.jpg"
@@ -2949,59 +3122,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/88309/whole-grain-waffles/</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Whole Grain Waffles</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  eggs, beaten\n\n\n1 ¾ cups skim milk\n\n\n¼ cup canola oil\n\n\n¼ cup unsweetened applesauce\n\n\n1 teaspoon vanilla extract\n\n\n1 cup whole wheat pastry flour\n\n\n½ cup flax seed meal\n\n\n¼ cup wheat germ\n\n\n¼ cup all-purpose flour\n\n\n4 teaspoons baking powder\n\n\n1 tablespoon sugar\n\n\n¼ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  eggs, beaten\n\n\n1 ¾ cups skim milk\n\n\n¼ cup canola oil\n\n\n¼ cup unsweetened applesauce\n\n\n1 teaspoon vanilla extract\n\n\n1 cup whole wheat pastry flour\n\n\n½ cup flax seed meal\n\n\n¼ cup wheat germ\n\n\n¼ cup all-purpose flour\n\n\n4 teaspoons baking powder\n\n\n1 tablespoon sugar\n\n\n¼ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large bowl, whisk together the eggs, milk, oil, applesauce, and vanilla. Beat in whole wheat pastry flour, flax seed meal, wheat germ, all-purpose flour, baking powder, sugar, and salt until batter is smooth."},{"recipe_directions":"Preheat a waffle iron, and coat with cooking spray. Pour batter into waffle iron in batches, and cook until crisp and golden brown."}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"288\nCalories\n\n\n16g \nFat\n\n\n28g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699653859-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/91wh4h67nGQbM2cu438BobsZIVY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3524232-44acb891ce5a4099a7921ebfd6f1de96.jpg"
@@ -3014,59 +3183,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/46291/savory-herb-waffles/</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Savory Herb Waffles</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups all-purpose flour\n\n\n2 teaspoons baking powder\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon garlic salt\n\n\n1 teaspoon dried parsley\n\n\n½ teaspoon dried rosemary\n\n\n¼ teaspoon dried tarragon\n\n\n1 ½ cups shredded smoked Gouda cheese\n\n\n2 cups buttermilk\n\n\n3  eggs, separated\n\n\n⅔ cup light sour cream\n\n\n½ cup vegetable oil"}]</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups all-purpose flour\n\n\n2 teaspoons baking powder\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon garlic salt\n\n\n1 teaspoon dried parsley\n\n\n½ teaspoon dried rosemary\n\n\n¼ teaspoon dried tarragon\n\n\n1 ½ cups shredded smoked Gouda cheese\n\n\n2 cups buttermilk\n\n\n3  eggs, separated\n\n\n⅔ cup light sour cream\n\n\n½ cup vegetable oil'}]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large bowl, stir together the flour, baking powder, baking soda, garlic salt, parsley, rosemary and tarragon. Stir in the shredded Gouda. Set aside."},{"recipe_directions":"In another bowl, mix together the egg yolks, buttermilk, sour cream and vegetable oil until well blended. Pour the wet ingredients into the flour mixture, and stir until just blended. In a separate clean bowl, whip the egg whites until stiff peaks form. Fold into the waffle batter."},{"recipe_directions":"Heat the waffle iron, and grease with vegetable oil spray. Use the recommended amount of batter for each waffle according to your iron. Close the lid, and cook until golden brown. Waffles can be held in a warm oven while the others are cooking. Serve with creamed beef or chicken."}]</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"511\nCalories\n\n\n30g \nFat\n\n\n41g \nCarbs\n\n\n20g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699653863-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/2YbNIdIj7a6-2Z79BTprP91LoXU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1119130-a06a5c8f1ceb461db0cf1b970aafba26.jpg"
@@ -3079,59 +3244,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/237219/strawberry-waffles/</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Strawberry Waffles</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 ½ cups all-purpose flour\n\n\n4 teaspoons baking powder\n\n\n¾ teaspoon salt\n\n\n2 cups buttermilk\n\n\n½ cup vanilla Greek-style yogurt\n\n\n½ cup butter, melted\n\n\n2  eggs, beaten\n\n\n1 ½ tablespoons white sugar\n\n\n¾ cup chopped strawberries, or more to taste"}]</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 ½ cups all-purpose flour\n\n\n4 teaspoons baking powder\n\n\n¾ teaspoon salt\n\n\n2 cups buttermilk\n\n\n½ cup vanilla Greek-style yogurt\n\n\n½ cup butter, melted\n\n\n2  eggs, beaten\n\n\n1 ½ tablespoons white sugar\n\n\n¾ cup chopped strawberries, or more to taste'}]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat and grease a waffle iron according to manufacturer's instructions."},{"recipe_directions":"Sift flour, baking powder, and salt together in a bowl. Whisk buttermilk, yogurt, butter, eggs, and sugar together in a separate bowl; stir into flour mixture until batter is smooth. Fold strawberries into batter."},{"recipe_directions":"Pour about 1/3 cup batter into preheated waffle iron; cook until lightly browned, 5 to 7 minutes. Repeat with remaining batter."}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"414\nCalories\n\n\n19g \nFat\n\n\n50g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699653869-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/lkJGTHj0k5fPuc9ZJy185WGGRLY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1752326-30d89dd7233044e48b7934aae4e62a7c.jpg"
@@ -3144,59 +3305,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/23390/emmas-belgian-waffles/</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Emma's Belgian Waffles</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n40 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  egg yolks\n\n\n5 tablespoons white sugar\n\n\n1 ½ teaspoons vanilla extract\n\n\n½ cup butter, melted\n\n\n1 teaspoon salt\n\n\n2 ¾ cups self-rising flour\n\n\n2 cups warm milk\n\n\n2  egg whites"}]</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  egg yolks\n\n\n5 tablespoons white sugar\n\n\n1 ½ teaspoons vanilla extract\n\n\n½ cup butter, melted\n\n\n1 teaspoon salt\n\n\n2 ¾ cups self-rising flour\n\n\n2 cups warm milk\n\n\n2  egg whites'}]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large bowl, beat together egg yolks and sugar. Beat in vanilla extract, butter and salt. Alternately mix in flour and milk until blended well."},{"recipe_directions":"In a separate bowl, beat egg whites until they have formed soft peaks. Fold egg whites into batter and let stand for 40 minutes."},{"recipe_directions":"Spray preheated waffle iron with non-stick cooking spray. Pour mix onto hot waffle iron. Cook until golden brown and fluffy."}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"445\nCalories\n\n\n19g \nFat\n\n\n57g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>1699653874-48</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Y1deKhw-k-1P_bCNVr3U81okczk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1974674-ea33c879e40b4c77a4d8053257340cae.jpg"
@@ -3209,59 +3366,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/240590/easy-malted-waffles/</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Easy Malted Waffles</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n2 cups all-purpose flour\n\n\n5 tablespoons malted milk powder\n\n\n2 tablespoons corn meal\n\n\n2 tablespoons white sugar\n\n\n1 ¼ tablespoons baking powder\n\n\n½ teaspoon salt\n\n\n2 cups milk\n\n\n2  eggs, beaten\n\n\n¼ cup butter, melted\n\n\n1 tablespoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n2 cups all-purpose flour\n\n\n5 tablespoons malted milk powder\n\n\n2 tablespoons corn meal\n\n\n2 tablespoons white sugar\n\n\n1 ¼ tablespoons baking powder\n\n\n½ teaspoon salt\n\n\n2 cups milk\n\n\n2  eggs, beaten\n\n\n¼ cup butter, melted\n\n\n1 tablespoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a waffle iron according to manufacturer's instructions. Spray the inside of the waffle iron with cooking spray."},{"recipe_directions":"Stir flour, milk powder, corn meal, sugar, baking powder, and salt together in a bowl. Whisk milk, eggs, butter, and vanilla extract together in a separate bowl; pour into flour mixture and stir just until batter is combined."},{"recipe_directions":"Pour batter, working in batches, into the preheated waffle iron and cook until golden brown, about 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"362\nCalories\n\n\n12g \nFat\n\n\n53g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1699653879-49</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6rN4egyMxTRBradGGzxiO6Bi0T4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2435188-cinnamon-roll-waffles-ReneePaj-1x1-1-f1e00d6dc55c446cbe711c5e0b2a7efe.jpg"
@@ -3275,59 +3428,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/240386/cinnamon-roll-waffles/</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Cinnamon Roll Waffles</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups all-purpose flour\n\n\n2 tablespoons white sugar\n\n\n4 teaspoons baking powder\n\n\n1 teaspoon salt\n\n\n1 ½ cups warm milk\n\n\n⅓ cup butter, melted\n\n\n2  eggs, beaten\n\n\n1 teaspoon vanilla extract"},{"recipe_ingredients":"¾ cup brown sugar, packed\n\n\n½ cup butter, melted\n\n\n1 tablespoon ground cinnamon"},{"recipe_ingredients":"1 ½ cups confectioners' sugar\n\n\n1 (3 ounce) package cream cheese, softened\n\n\n¼ cup butter, softened\n\n\n½ teaspoon vanilla extract\n\n\n⅛ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups all-purpose flour\n\n\n2 tablespoons white sugar\n\n\n4 teaspoons baking powder\n\n\n1 teaspoon salt\n\n\n1 ½ cups warm milk\n\n\n⅓ cup butter, melted\n\n\n2  eggs, beaten\n\n\n1 teaspoon vanilla extract'}, {'recipe_ingredients': '¾ cup brown sugar, packed\n\n\n½ cup butter, melted\n\n\n1 tablespoon ground cinnamon'}, {'recipe_ingredients': "1 ½ cups confectioners' sugar\n\n\n1 (3 ounce) package cream cheese, softened\n\n\n¼ cup butter, softened\n\n\n½ teaspoon vanilla extract\n\n\n⅛ teaspoon salt"}]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"To make the waffles: Preheat a waffle iron according to the manufacturer's instructions."},{"recipe_directions":"Whisk flour, white sugar, baking powder, and 1 teaspoon salt together in a large bowl. Beat warm milk, 1/3 cup melted butter, eggs, and 1 teaspoon vanilla extract together in another bowl. Add milk mixture to flour mixture and stir until batter is lumpy and just moistened."},{"recipe_directions":"Ladle batter into the preheated waffle iron, working in batches if necessary, and cook until golden brown and the iron stops steaming, about 5 minutes."},{"recipe_directions":"To make the cinnamon topping: Stir brown sugar, 1/2 cup melted butter, and cinnamon together in a small bowl."},{"recipe_directions":"To make the cream cheese topping: Beat confectioners' sugar, cream cheese, 1/4 cup softened butter, 1/2 teaspoon vanilla extract, and 1/8 teaspoon salt together in a medium bowl."},{"recipe_directions":"Place waffles on a plate and drizzle cinnamon mixture and cream cheese mixture over the top."}]</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"794\nCalories\n\n\n42g \nFat\n\n\n98g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1699653885-50</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/nGxtiieOrB078Qy_ndthv0Bglik=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/804262-341339b35a9e42d7ae67d88b542d6058.jpg"
@@ -3340,59 +3489,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/220191/carols-cinnamon-waffles/</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Carol's Cinnamon Waffles</t>
         </is>
       </c>
-      <c r="G51" s="1" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n18 \n\n\nYield:\n18 small square waffles"}]</t>
         </is>
       </c>
-      <c r="H51" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups all-purpose flour\n\n\n¼ cup white sugar\n\n\n½ cup brown sugar\n\n\n2 ½ teaspoons ground cinnamon\n\n\n4 teaspoons baking powder\n\n\n¼ teaspoon salt\n\n\n1 ¾ cups milk\n\n\n½ cup vegetable oil\n\n\n1 teaspoon vanilla extract\n\n\n2  egg whites\n\n\n  cooking spray"}]</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups all-purpose flour\n\n\n¼ cup white sugar\n\n\n½ cup brown sugar\n\n\n2 ½ teaspoons ground cinnamon\n\n\n4 teaspoons baking powder\n\n\n¼ teaspoon salt\n\n\n1 ¾ cups milk\n\n\n½ cup vegetable oil\n\n\n1 teaspoon vanilla extract\n\n\n2  egg whites\n\n\n  cooking spray'}]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk flour, white sugar, brown sugar, cinnamon, baking powder, and salt together in a bowl until no lumps remain."},{"recipe_directions":"Pour milk, vegetable oil, and vanilla extract into the flour mixture; stir until just combined."},{"recipe_directions":"Beat egg whites until foamy in a large glass or metal mixing bowl until soft peaks form. Lift your beater or whisk straight up: the egg whites will form soft mounds rather than a sharp peak."},{"recipe_directions":"Fold the the beaten egg whites into the batter."},{"recipe_directions":"Preheat a waffle iron and coat with cooking spray."},{"recipe_directions":"Pour batter onto waffle iron in batches and cook until crisp and golden brown, about 2 minutes; repeat until all batter is used."}]</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"154\nCalories\n\n\n7g \nFat\n\n\n21g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1699653891-51</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/jNfGrpetG5a6irvfObz9tDDSvGg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2388x0:2390x2):format(webp)/7666385-4d7916073ff740d083ea5f4042f01d7b.jpg"
@@ -3405,59 +3550,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/278458/chaffles/</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Chaffles</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n2 \n\n\nYield:\n2 chaffles"}]</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 large egg\n\n\n½ cup shredded mozzarella cheese"}]</t>
-        </is>
-      </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 large egg\n\n\n½ cup shredded mozzarella cheese'}]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a waffle maker."},{"recipe_directions":"Whisk egg in a small bowl; stir in mozzarella cheese until batter is well combined."},{"recipe_directions":"Pour 1/2 of the batter onto the preheated waffle maker, spreading it out from the center with a spoon. Close the waffle maker and cook until steaming stops and chaffle is well-browned, about 3 minutes. Don't overcook, as that will make it chewy. Repeat with remaining batter."}]</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"108\nCalories\n\n\n7g \nFat\n\n\n1g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1699653894-52</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Aa7krPYorja6L0tAC5ZGmY5F4oQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/454371-79e09d9ce4f14725ac131b1dc2bd4861.jpg"
@@ -3470,59 +3611,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21271/banana-waffles/</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Banana Waffles</t>
         </is>
       </c>
-      <c r="G53" s="1" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H53" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ¼ cups all-purpose flour\n\n\n3 teaspoons baking powder\n\n\n½ teaspoon salt\n\n\n1 pinch ground nutmeg\n\n\n1 cup 1% milk\n\n\n1 large egg\n\n\n  nonstick cooking spray\n\n\n2  ripe bananas, sliced"}]</t>
-        </is>
-      </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ¼ cups all-purpose flour\n\n\n3 teaspoons baking powder\n\n\n½ teaspoon salt\n\n\n1 pinch ground nutmeg\n\n\n1 cup 1% milk\n\n\n1 large egg\n\n\n  nonstick cooking spray\n\n\n2  ripe bananas, sliced'}]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the waffle iron."},{"recipe_directions":"Sift together flour, baking powder, salt, and nutmeg in a large mixing bowl. Stir in milk and egg until mixture is smooth."},{"recipe_directions":"Spray preheated waffle iron with nonstick cooking spray."},{"recipe_directions":"Pour 2 tablespoons waffle batter onto the hot waffle iron. Place 2 banana slices on top of the batter and then spoon another 2 tablespoons batter on top of the banana. Cook until golden brown. Serve hot."}]</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K53" s="1" t="inlineStr">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"241\nCalories\n\n\n3g \nFat\n\n\n47g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1699653900-53</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/xI9KOxcoylYlR71if4Zz09mrmS8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(851x0:853x2):format(webp)/4546539-d3a19b4b3723446794c725b5a3313583.jpg"
@@ -3535,59 +3672,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/110926/almond-flour-waffles/</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Almond Flour Waffles</t>
         </is>
       </c>
-      <c r="G54" s="1" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H54" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup almond flour\n\n\n1 teaspoon baking soda\n\n\n1 pinch salt\n\n\n4  eggs\n\n\n¼ cup honey\n\n\n1 teaspoon vanilla extract\n\n\n  cooking spray"}]</t>
-        </is>
-      </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup almond flour\n\n\n1 teaspoon baking soda\n\n\n1 pinch salt\n\n\n4  eggs\n\n\n¼ cup honey\n\n\n1 teaspoon vanilla extract\n\n\n  cooking spray'}]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a waffle iron according to the manufacturer's instructions."},{"recipe_directions":"Combine almond flour, baking soda, and salt in a large bowl. Whisk eggs, honey, and vanilla together in a separate bowl. Stir flour mixture into egg mixture until smooth."},{"recipe_directions":"Spray the preheated waffle iron with cooking spray. Spoon batter onto waffle iron; cook until golden brown and the iron stops steaming, about 5 minutes. Repeat with remaining batter. Serve hot."}]</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"214\nCalories\n\n\n14g \nFat\n\n\n16g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1699653904-54</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/H32erbrLCqJFmndHvuITWaUjHu0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/470854-52fc4f60d55947c3911c1b16e6badd55.jpg"
@@ -3600,59 +3733,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/213251/liege-belgian-waffles-with-pearl-sugar/</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Liège Belgian Waffles with Pearl Sugar</t>
         </is>
       </c>
-      <c r="G55" s="1" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n45 mins\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n10 \n\n\nYield:\n10 waffles"}]</t>
         </is>
       </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (.25 ounce) package active dry yeast\n\n\n1 ½ tablespoons white sugar\n\n\n¾ cup lukewarm milk\n\n\n3 large eggs\n\n\n1 cup melted butter\n\n\n2 teaspoons vanilla extract\n\n\n3 cups flour\n\n\n½ teaspoon salt\n\n\n1 ½ cups pearl sugar (such as Lars' Own®)"}]</t>
-        </is>
-      </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "1 (.25 ounce) package active dry yeast\n\n\n1 ½ tablespoons white sugar\n\n\n¾ cup lukewarm milk\n\n\n3 large eggs\n\n\n1 cup melted butter\n\n\n2 teaspoons vanilla extract\n\n\n3 cups flour\n\n\n½ teaspoon salt\n\n\n1 ½ cups pearl sugar (such as Lars' Own®)"}]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Sprinkle yeast and white sugar over warm milk in a small bowl. The milk should be no more than 100 degrees F (40 degrees C). Let stand for 15 minutes until yeast softens and begins to form a creamy foam."},{"recipe_directions":"Whisk eggs, melted butter, and vanilla into the yeast mixture until evenly blended; set aside."},{"recipe_directions":"Stir together flour and salt in a separate large bowl, and make a well in the center. Pour the egg mixture into the well, then stir in the flour mixture until a soft dough forms. Cover with a light cloth and let rise in a warm place, 80 to 95 degrees F (27 to 35 degrees C), until doubled in volume, about 30 minutes. Gently mix in the pearl sugar."},{"recipe_directions":"Preheat a waffle iron according to manufacturer's instructions."},{"recipe_directions":"Place a baseball-sized ball of dough on the preheated waffle iron. Cook waffles until golden and crisp, about 2 minutes. Repeat with remaining dough. Allow waffles to cool for 2 to 3 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K55" s="1" t="inlineStr">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"458\nCalories\n\n\n21g \nFat\n\n\n62g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>1699653908-55</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/lxkjppFlo9e5oOOfBqfOAtBfbVw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2591x0:2593x2):format(webp)/7618556-0d17f28400984b19b55f014891f43294.jpg"
@@ -3665,59 +3794,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/278328/chaffles-with-almond-flour/</t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Chaffles with Almond Flour</t>
         </is>
       </c>
-      <c r="G56" s="1" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n2 \n\n\nYield:\n2 4-inch chaffles"}]</t>
         </is>
       </c>
-      <c r="H56" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 large egg\n\n\n1 tablespoon blanched almond flour\n\n\n¼ teaspoon baking powder\n\n\n½ cup shredded mozzarella cheese\n\n\n  cooking spray"}]</t>
-        </is>
-      </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 large egg\n\n\n1 tablespoon blanched almond flour\n\n\n¼ teaspoon baking powder\n\n\n½ cup shredded mozzarella cheese\n\n\n  cooking spray'}]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk egg, almond flour, and baking powder together in a bowl. Stir in mozzarella cheese; set batter aside."},{"recipe_directions":"Preheat a waffle iron according to the manufacturer's instructions."},{"recipe_directions":"Spray both sides of the preheated waffle iron with cooking spray. Pour 1/2 of the batter onto the waffle iron and spread it out from the center with a spoon. Close the waffle maker and cook until chaffle reaches your desired doneness, about 3 minutes. Carefully lift chaffle out of the waffle iron and repeat with remaining batter. Allow chaffles to cool and crisp up, about 2 to 3 minutes."}]</t>
         </is>
       </c>
-      <c r="J56" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K56" s="1" t="inlineStr">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"132\nCalories\n\n\n9g \nFat\n\n\n2g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>1699653912-56</t>
         </is>
       </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/RzKOE74nTj4jm4TQwbdXiFjJ8R0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3327834-easy-french-toast-waffles-sanzoe-1x1-1-80ab8b28107c470695bdf2d74194b8b8.jpg"
@@ -3731,59 +3856,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E57" s="1" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246198/easy-french-toast-waffles/</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Easy French Toast Waffles</t>
         </is>
       </c>
-      <c r="G57" s="1" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 slices"}]</t>
         </is>
       </c>
-      <c r="H57" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup whole milk\n\n\n2 large eggs\n\n\n1 tablespoon maple syrup\n\n\n½ teaspoon vanilla extract\n\n\n1 pinch salt\n\n\n4  1/2-inch thick pieces brioche\n\n\n  cooking spray"}]</t>
-        </is>
-      </c>
-      <c r="I57" s="1" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup whole milk\n\n\n2 large eggs\n\n\n1 tablespoon maple syrup\n\n\n½ teaspoon vanilla extract\n\n\n1 pinch salt\n\n\n4  1/2-inch thick pieces brioche\n\n\n  cooking spray'}]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a waffle iron according to the manufacturer's instructions."},{"recipe_directions":"Whisk milk, eggs, maple syrup, vanilla extract, and salt together in a wide bowl until thoroughly combined. Dip one slice brioche into the bowl and press gently until both sides are coated. Lift bread from the bowl with a slotted spatula, letting any egg mixture drip back into the bowl, and transfer to a rimmed baking sheet. Repeat with remaining bread. Let sit until egg mixture soaks in, about 2 minutes."},{"recipe_directions":"Spray the preheated waffle iron with cooking spray. Place one slice brioche onto the waffle iron and gently close the lid without forcing it down. Cook until golden brown and the iron stops steaming, 3 to 5 minutes. Repeat to cook remaining waffles."},{"recipe_directions":"You can use heavy whipping cream or half-and-half instead of whole milk and cinnamon-swirl bread, French bread, or Hawaiian sweet bread instead of brioche."}]</t>
         </is>
       </c>
-      <c r="J57" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K57" s="1" t="inlineStr">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"299\nCalories\n\n\n11g \nFat\n\n\n41g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>1699653916-57</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/n5syrAoiy281o9yAh94PjA3yOUA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4481488-4c692d58db4d4def8bc8ae58dfbbc373.jpg"
@@ -3796,59 +3917,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246917/sams-sourdough-waffles/</t>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Sam's Sourdough Waffles</t>
         </is>
       </c>
-      <c r="G58" s="1" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n 4 hrs\n\n\nTotal Time:\n 4 hrs 40 mins\n\n\nServings:\n8 \n\n\nYield:\n8 to 10 waffles"}]</t>
         </is>
       </c>
-      <c r="H58" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups all-purpose flour\n\n\n1 ½ cups water\n\n\n1 cup sourdough starter\n\n\n½ cup vegetable oil\n\n\n2  eggs\n\n\n2 tablespoons white sugar\n\n\n2 teaspoons salt\n\n\n1 tablespoon water\n\n\n1 teaspoon baking soda"}]</t>
-        </is>
-      </c>
-      <c r="I58" s="1" t="inlineStr">
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups all-purpose flour\n\n\n1 ½ cups water\n\n\n1 cup sourdough starter\n\n\n½ cup vegetable oil\n\n\n2  eggs\n\n\n2 tablespoons white sugar\n\n\n2 teaspoons salt\n\n\n1 tablespoon water\n\n\n1 teaspoon baking soda'}]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix flour, 1 1/2 cups water, and sourdough starter together in a large bowl to make batter; cover loosely with plastic wrap and let sit in a warm place until filled with large holes and bubbles, 4 hours to overnight."},{"recipe_directions":"Stir oil, eggs, sugar, and salt into the batter; mix well to combine."},{"recipe_directions":"Whisk 1 tablespoon water and baking soda together in a small bowl until dissolved. Fold into the batter with a rubber spatula."},{"recipe_directions":"Preheat a waffle iron according to the manufacturer's instructions."},{"recipe_directions":"Pour about 1/3 cup batter onto preheated iron and bake until crisp and golden, according to manufacturer's instructions, about 3 minutes. Continue making waffles until all remaining batter is used."}]</t>
         </is>
       </c>
-      <c r="J58" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K58" s="1" t="inlineStr">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"291\nCalories\n\n\n14g \nFat\n\n\n36g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>1699653921-58</t>
         </is>
       </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D59" s="1" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/74Izem-qC0Qpxz9nATAus11RD6E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3554091-02b903cce1b24a3da432dc2e572176ab.jpg"
@@ -3861,59 +3978,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E59" s="1" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/220890/potato-waffles/</t>
         </is>
       </c>
-      <c r="F59" s="1" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Potato Waffles</t>
         </is>
       </c>
-      <c r="G59" s="1" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H59" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons butter\n\n\n1  onion, chopped\n\n\n1 tablespoon minced garlic\n\n\n2 cups mashed potatoes\n\n\n2 large eggs\n\n\n¼ cup all-purpose flour\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I59" s="1" t="inlineStr">
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons butter\n\n\n1  onion, chopped\n\n\n1 tablespoon minced garlic\n\n\n2 cups mashed potatoes\n\n\n2 large eggs\n\n\n¼ cup all-purpose flour\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Melt butter in a skillet over medium heat. Add onion and garlic; cook and stir until onion is tender, 5 to 7 minutes."},{"recipe_directions":"Preheat a waffle iron according to manufacturer's instructions."},{"recipe_directions":"Combine onion mixture, mashed potatoes, eggs, flour, salt, and black pepper in a large bowl until well blended."},{"recipe_directions":"Scoop 1/4 to 1/2 cup batter (depending on size of waffle iron) into the center of waffle iron and close lid. Cook until golden brown, 3 to 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J59" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K59" s="1" t="inlineStr">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"217\nCalories\n\n\n9g \nFat\n\n\n28g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>1699653931-59</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1o7_rmH1jttC_EfDev4hlukEczM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2900185-bfc27b331af742e3b79bd5996fe2565e.jpg"
@@ -3926,59 +4039,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E60" s="1" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/24141/chocolate-waffles-i/</t>
         </is>
       </c>
-      <c r="F60" s="1" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Chocolate Waffles</t>
         </is>
       </c>
-      <c r="G60" s="1" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n10 \n\n\nYield:\n10 waffles"}]</t>
         </is>
       </c>
-      <c r="H60" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups all-purpose flour\n\n\n½ cup white sugar\n\n\n3 tablespoons unsweetened cocoa powder\n\n\n3 teaspoons baking powder\n\n\n½ teaspoon salt\n\n\n1 cup milk\n\n\n2 large eggs\n\n\n4 tablespoons butter, melted"},{"recipe_ingredients":"1 tablespoon butter, softened\n\n\n¾ cup confectioners' sugar\n\n\n½ teaspoon vanilla extract\n\n\n1 teaspoon milk"},{"recipe_ingredients":"nonstick cooking spray"}]</t>
-        </is>
-      </c>
-      <c r="I60" s="1" t="inlineStr">
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups all-purpose flour\n\n\n½ cup white sugar\n\n\n3 tablespoons unsweetened cocoa powder\n\n\n3 teaspoons baking powder\n\n\n½ teaspoon salt\n\n\n1 cup milk\n\n\n2 large eggs\n\n\n4 tablespoons butter, melted'}, {'recipe_ingredients': "1 tablespoon butter, softened\n\n\n¾ cup confectioners' sugar\n\n\n½ teaspoon vanilla extract\n\n\n1 teaspoon milk"}, {'recipe_ingredients': 'nonstick cooking spray'}]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a waffle iron."},{"recipe_directions":"Make waffles: Stir together flour, sugar, cocoa, baking powder, and salt in a large mixing bowl. Stir in milk, eggs, and butter until the mixture is smooth."},{"recipe_directions":"Make hard sauce: stir together softened butter, confectioners' sugar, vanilla extract, and milk. Sauce should be fairly stiff. Set aside."},{"recipe_directions":"Spray preheated waffle iron with nonstick cooking spray. Pour waffle mix onto hot waffle iron. Cook until golden brown. Serve hot with hard sauce."}]</t>
         </is>
       </c>
-      <c r="J60" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K60" s="1" t="inlineStr">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"226\nCalories\n\n\n8g \nFat\n\n\n36g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>1699653937-60</t>
         </is>
       </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/f59y1AJ7nGzkZ5RxgRw5IpKLkNU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/8073898-tender-and-easy-buttermilk-waffles-Jia-Wang-4x3-1-c9c4de7507c848f98d20cbfb7f34475f.jpg"
@@ -3992,59 +4101,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E61" s="1" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/233920/tender-and-easy-buttermilk-waffles/</t>
         </is>
       </c>
-      <c r="F61" s="1" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Tender and Easy Buttermilk Waffles</t>
         </is>
       </c>
-      <c r="G61" s="1" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H61" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups all-purpose flour\n\n\n2 tablespoons white sugar\n\n\n2 teaspoons baking powder\n\n\n1 teaspoon baking soda\n\n\n½ teaspoon salt\n\n\n2 cups low-fat buttermilk\n\n\n⅓ cup melted butter\n\n\n2 large eggs, lightly beaten\n\n\n1 teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I61" s="1" t="inlineStr">
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups all-purpose flour\n\n\n2 tablespoons white sugar\n\n\n2 teaspoons baking powder\n\n\n1 teaspoon baking soda\n\n\n½ teaspoon salt\n\n\n2 cups low-fat buttermilk\n\n\n⅓ cup melted butter\n\n\n2 large eggs, lightly beaten\n\n\n1 teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk flour, sugar, baking powder, baking soda, and salt together in a bowl until evenly combined."},{"recipe_directions":"Whisk buttermilk and melted butter together in a separate bowl; whisk in eggs. Stir buttermilk mixture into flour mixture until just combined and batter is slightly lumpy; stir in vanilla extract."},{"recipe_directions":"Preheat a waffle iron according to manufacturer's instructions."},{"recipe_directions":"To cook each waffle, pour enough batter into the preheated waffle iron to reach 1/2 inch from the edge. Cook according to manufacturer's instructions."}]</t>
         </is>
       </c>
-      <c r="J61" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K61" s="1" t="inlineStr">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"318\nCalories\n\n\n13g \nFat\n\n\n41g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>1699653941-61</t>
         </is>
       </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1316/breakfast-and-brunch/waffles/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/KxmtllFu0vXpG4GyRGj4Vt56xio=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/65691-Pumpkin-Waffles-With-Apple-Cider-Syrup-1x1-0468-1-00064c20a5ed4682a297fd608116c497.jpg"
@@ -4058,42 +4163,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E62" s="1" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/65691/pumpkin-waffles-with-apple-cider-syrup/</t>
         </is>
       </c>
-      <c r="F62" s="1" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Pumpkin Waffles</t>
         </is>
       </c>
-      <c r="G62" s="1" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H62" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 ½ cups all-purpose flour\n\n\n¼ cup packed brown sugar\n\n\n4 teaspoons baking powder\n\n\n2 teaspoons ground cinnamon\n\n\n1 teaspoon ground allspice\n\n\n1 teaspoon ground ginger\n\n\n½ teaspoon salt\n\n\n2 cups milk\n\n\n1 cup canned pumpkin\n\n\n4  eggs, separated\n\n\n¼ cup butter, melted"},{"recipe_ingredients":"½ cup white sugar\n\n\n1 tablespoon cornstarch\n\n\n1 teaspoon ground cinnamon\n\n\n1 cup apple cider\n\n\n1 tablespoon lemon juice\n\n\n2 tablespoons butter"}]</t>
-        </is>
-      </c>
-      <c r="I62" s="1" t="inlineStr">
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 ½ cups all-purpose flour\n\n\n¼ cup packed brown sugar\n\n\n4 teaspoons baking powder\n\n\n2 teaspoons ground cinnamon\n\n\n1 teaspoon ground allspice\n\n\n1 teaspoon ground ginger\n\n\n½ teaspoon salt\n\n\n2 cups milk\n\n\n1 cup canned pumpkin\n\n\n4  eggs, separated\n\n\n¼ cup butter, melted'}, {'recipe_ingredients': '½ cup white sugar\n\n\n1 tablespoon cornstarch\n\n\n1 teaspoon ground cinnamon\n\n\n1 cup apple cider\n\n\n1 tablespoon lemon juice\n\n\n2 tablespoons butter'}]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a waffle iron according to manufacturer's instructions."},{"recipe_directions":"Combine flour, brown sugar, baking powder, cinnamon, allspice, ginger, and salt in a mixing bowl. Stir milk, pumpkin, and egg yolks together in a separate bowl. Whip egg whites in a clean dry bowl until soft peaks form."},{"recipe_directions":"Stir the flour mixture and 1/4 cup melted butter to the pumpkin mixture, stirring just to combine. Use a whisk or rubber spatula to fold 1/3 of the egg whites into the batter, stirring gently until incorporated. Fold in the remaining egg whites. Cook waffles according to manufacturer's instructions."},{"recipe_directions":"To make the syrup: Stir sugar, cornstarch, and cinnamon together in a saucepan. Stir in apple cider and lemon juice. Cook over medium heat until mixture begins to boil; boil until the syrup thickens. Remove from heat and stir in 2 tablespoons of butter until melted. Serve warm."}]</t>
         </is>
       </c>
-      <c r="J62" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
-        </is>
-      </c>
-      <c r="K62" s="1" t="inlineStr">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"530\nCalories\n\n\n17g \nFat\n\n\n82g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>